--- a/INTLINE/data/566/PHSA/MISSI/Producer Price Index.xlsx
+++ b/INTLINE/data/566/PHSA/MISSI/Producer Price Index.xlsx
@@ -1,38 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4ead1b069f5456b/Desktop/LBC/WORK/MISSI-PPS/2022/MISSI/MAR2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\2022Work\MISSI-PPS\2022 MISSI-PPS\MISSI-Apr2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:8000_{9B7CB316-884C-4638-A2EA-0A8A2E04D50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917C0563-5570-45E9-A53D-01B09F308E9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E034581-5AA8-4D78-8294-C4BBC57A9BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AED1EAAC-787C-4B5D-B2B0-B7C2C8B94B29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9FBB72E-D9F3-499A-85B7-9D2C46F7E026}"/>
   </bookViews>
   <sheets>
-    <sheet name="TAB5-PPI" sheetId="5" r:id="rId1"/>
+    <sheet name="TAB5-PPI" sheetId="3" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_Fill">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TAB5-PPI'!$A$1:$K$573</definedName>
-    <definedName name="AFF_Con_Lev_Qrt">[1]AFF!#REF!</definedName>
-    <definedName name="AFF_Cur_Lev_Qrt">[1]AFF!#REF!</definedName>
+    <definedName name="AFF_Con_Lev_Qrt">#REF!</definedName>
+    <definedName name="AFF_Cur_Lev_Qrt">#REF!</definedName>
     <definedName name="AFF_Grw_Anl">#REF!</definedName>
-    <definedName name="AFF_Grw_Con_Qrt">[1]AFF!#REF!</definedName>
-    <definedName name="AFF_Grw_Cur_Qrt">[1]AFF!#REF!</definedName>
-    <definedName name="AFF_Inf_Qrt">[1]AFF!#REF!</definedName>
+    <definedName name="AFF_Grw_Con_Qrt">#REF!</definedName>
+    <definedName name="AFF_Grw_Cur_Qrt">#REF!</definedName>
+    <definedName name="AFF_Inf_Qrt">#REF!</definedName>
     <definedName name="AFF_IPIN_Anl">#REF!</definedName>
-    <definedName name="AFF_IPIN_Qrt">[1]AFF!#REF!</definedName>
+    <definedName name="AFF_IPIN_Qrt">#REF!</definedName>
     <definedName name="AFF_Lev_Anl">#REF!</definedName>
     <definedName name="conff">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'TAB5-PPI'!$A$1:$I$574</definedName>
-    <definedName name="Q">[1]AFF!#REF!</definedName>
+    <definedName name="Q">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="51">
   <si>
     <t>Year/Month</t>
   </si>
@@ -188,7 +185,18 @@
     <t>Table 5. Producer Price Index (2018=100), Year-on-Year Growth Rates for Manufacturing Sector</t>
   </si>
   <si>
-    <t>January 2021 – March 2022p</t>
+    <r>
+      <t>January 2021 – April 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
   </si>
   <si>
     <t>b/</t>
@@ -403,6 +411,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -418,17 +432,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,6 +445,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,8 +531,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 12" xfId="1" xr:uid="{FC87F028-7C5C-4962-8DC5-463A205BA0EF}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5CB9DA67-66F0-4849-A155-37DA74FB20BD}"/>
+    <cellStyle name="Normal 12" xfId="1" xr:uid="{F36F9875-9FC3-4F39-8A8D-E3A279E6C2AB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EEF7DAAF-9250-4282-8CCE-C05F062E6C08}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,19 +545,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="AFF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,32 +843,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF445A-584C-44C5-9397-C446A7E2B979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C862D-75BF-4E4B-96CA-068833CFDBBF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
@@ -886,7 +881,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>44</v>
       </c>
@@ -899,7 +894,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -910,7 +905,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
@@ -928,7 +923,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="31" t="s">
         <v>3</v>
@@ -948,7 +943,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
@@ -964,560 +959,575 @@
       <c r="I6" s="38"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
-        <v>91.476080532237646</v>
+      <c r="B8" s="7">
+        <v>91.475744815960056</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5">
-        <v>-1.7884668500216527</v>
+      <c r="D8" s="7">
+        <v>-1.7888272853412879</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>98.8404412428347</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="10"/>
+      <c r="H8" s="7">
         <v>0.98511068247675304</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="E9" s="10"/>
       <c r="G9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>90.510202270627403</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="8">
+      <c r="D10" s="3">
         <v>-5.8469611083648783</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="8">
+      <c r="F10" s="3">
         <v>97.126451276869091</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>-0.29354977655936532</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <v>90.808098093266153</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="8">
+      <c r="D11" s="3">
         <v>-5.626746595960574</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="8">
+      <c r="F11" s="3">
         <v>97.365349629460169</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>-0.16268654275418681</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <v>90.770786247399812</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="8">
+      <c r="D12" s="3">
         <v>-3.2665907363921054</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="8">
+      <c r="F12" s="3">
         <v>97.472582390086799</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="8">
+      <c r="H12" s="3">
         <v>-0.46901091002177209</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>90.429595820088636</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="8">
+      <c r="D13" s="3">
         <v>-2.9622217881727364</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="8">
+      <c r="F13" s="3">
         <v>97.474861124069662</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="8">
+      <c r="H13" s="3">
         <v>-0.69788069442081602</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <v>90.296042106450102</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="8">
+      <c r="D14" s="3">
         <v>-3.0371748202425719</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="8">
+      <c r="F14" s="3">
         <v>97.954995068560166</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="3">
         <v>90.908495759660113</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="8">
+      <c r="D15" s="3">
         <v>-1.4095302598704063</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="8">
+      <c r="F15" s="3">
         <v>98.322090524421498</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="8">
+      <c r="H15" s="3">
         <v>0.46935696284531314</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="3">
         <v>91.328464422191971</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="8">
+      <c r="D16" s="3">
         <v>-0.71017830667907678</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
         <v>98.922589028695356</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
         <v>1.2646054740763857</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="3">
         <v>91.781845776847788</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="8">
+      <c r="D17" s="3">
         <v>-0.38908463178468633</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="8">
+      <c r="F17" s="3">
         <v>99.675216640086504</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="8">
+      <c r="H17" s="3">
         <v>1.980195197337653</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <v>92.295227627356411</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="8">
+      <c r="D18" s="3">
         <v>0.10785237031194495</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="8">
+      <c r="F18" s="3">
         <v>99.777405008035899</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="8">
+      <c r="H18" s="3">
         <v>2.6686267422261656</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="3">
         <v>92.738087851252459</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="8">
+      <c r="D19" s="3">
         <v>0.64370849718704548</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="8">
+      <c r="F19" s="3">
         <v>100.08193276424038</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="8">
+      <c r="H19" s="3">
         <v>2.2945254326562692</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="3">
         <v>92.829717349059479</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="8">
+      <c r="D20" s="3">
         <v>1.0673182669670656</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="8">
+      <c r="F20" s="3">
         <v>100.61667145968777</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="8">
+      <c r="H20" s="3">
         <v>2.5644395253850982</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8">
-        <v>93.016403062651534</v>
+      <c r="B21" s="3">
+        <v>93.012374467320214</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="8">
-        <v>0.36448757953495559</v>
+      <c r="D21" s="3">
+        <v>0.36014073432508731</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="3">
         <v>101.29514999980294</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21" s="10"/>
+      <c r="H21" s="3">
         <v>2.2180587688250153</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="I21" s="10"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>2022</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="E24" s="10"/>
       <c r="G24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="8">
-        <v>94.037572329695266</v>
+      <c r="B25" s="3">
+        <v>94.034174445347219</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="8">
-        <v>3.8972071330930724</v>
+      <c r="D25" s="3">
+        <v>3.8934529879659951</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="8">
-        <v>102.72814757361564</v>
+      <c r="F25" s="3">
+        <v>102.63240068402895</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="8">
-        <v>5.7674260956763757</v>
+      <c r="H25" s="3">
+        <v>5.6688464725892063</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="8">
-        <v>94.646658696699603</v>
+      <c r="B26" s="3">
+        <v>94.68588880800084</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="8">
-        <v>4.2271126518815372</v>
+      <c r="D26" s="3">
+        <v>4.2703137673381519</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="8">
-        <v>103.62154209503709</v>
+      <c r="F26" s="3">
+        <v>103.65147095658531</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="8">
-        <v>6.4254814360405366</v>
+      <c r="H26" s="3">
+        <v>6.456220155371506</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8">
-        <v>95.320571201932566</v>
+      <c r="B27" s="3">
+        <v>95.363844228104753</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5.0600619104326672</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3">
+        <v>104.52710696437249</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7.2374450345979113</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>95.916684597149271</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="8">
-        <v>5.0123890544829131</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D28" s="3">
+        <v>6.067801948354723</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="8">
-        <v>104.43696339058576</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="F28" s="3">
+        <v>105.23411509135042</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="8">
-        <v>7.144964080901639</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H28" s="3">
+        <v>7.9602616282822725</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
       <c r="E29" s="10"/>
       <c r="G29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
       <c r="C30" s="10"/>
       <c r="E30" s="10"/>
       <c r="G30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
       <c r="C31" s="10"/>
       <c r="E31" s="10"/>
       <c r="G31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="C32" s="10"/>
       <c r="E32" s="10"/>
       <c r="G32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="C33" s="10"/>
       <c r="E33" s="10"/>
       <c r="G33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="C35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="C38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="C39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+    <row r="34" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="C34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="C39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1545,7 @@
       <c r="I48" s="30"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
       <c r="B49" s="31" t="s">
         <v>3</v>
@@ -1555,7 +1565,7 @@
       <c r="I49" s="36"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="33"/>
       <c r="C50" s="34"/>
@@ -1571,7 +1581,7 @@
       <c r="I50" s="38"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -1596,14 +1606,14 @@
       <c r="F52" s="20">
         <v>107.957807439668</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="7"/>
+      <c r="I52" s="9"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="18"/>
       <c r="C53" s="10"/>
@@ -1615,7 +1625,7 @@
       <c r="I53" s="10"/>
       <c r="K53" s="18"/>
     </row>
-    <row r="54" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1647,7 @@
       <c r="I54" s="10"/>
       <c r="K54" s="18"/>
     </row>
-    <row r="55" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1669,7 @@
       <c r="I55" s="10"/>
       <c r="K55" s="18"/>
     </row>
-    <row r="56" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1691,7 @@
       <c r="I56" s="10"/>
       <c r="K56" s="18"/>
     </row>
-    <row r="57" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1713,7 @@
       <c r="I57" s="10"/>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1735,7 @@
       <c r="I58" s="10"/>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1757,7 @@
       <c r="I59" s="10"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +1779,7 @@
       <c r="I60" s="10"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1801,7 @@
       <c r="I61" s="10"/>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1822,7 @@
       </c>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>15</v>
       </c>
@@ -1833,7 +1843,7 @@
       </c>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1864,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1885,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -1900,7 +1910,7 @@
       <c r="I67" s="20"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -1912,192 +1922,195 @@
       <c r="I68" s="18"/>
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="18">
         <v>105.74371821519871</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="18">
         <v>2.8750202224756327</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E69" s="10"/>
       <c r="F69" s="18">
         <v>109.34295170985081</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G69" s="10"/>
       <c r="H69" s="18">
         <v>1.3369624933652569</v>
       </c>
-      <c r="I69" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="I69" s="10"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="3">
         <v>106.02820786544626</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="8">
+      <c r="C70" s="10"/>
+      <c r="D70" s="3">
         <v>3.150157568365497</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="8">
+      <c r="E70" s="10"/>
+      <c r="F70" s="3">
         <v>109.50378335544535</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="8">
+      <c r="G70" s="10"/>
+      <c r="H70" s="3">
         <v>1.4860181954704066</v>
       </c>
-      <c r="I70" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="I70" s="10"/>
       <c r="J70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="3">
         <v>106.11287562883589</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="10"/>
+      <c r="D71" s="3">
+        <v>3.1786378051774644</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="3">
+        <v>109.72112391358434</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1.6718843684825124</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="3">
+        <v>107.28875174583156</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="8">
-        <v>3.1786378051774644</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D72" s="3">
+        <v>4.2463432011133007</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="8">
-        <v>109.64453731358749</v>
-      </c>
-      <c r="G71" s="10" t="s">
+      <c r="F72" s="3">
+        <v>109.72112391358434</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H71" s="8">
-        <v>1.6009162297931478</v>
-      </c>
-      <c r="I71" s="10" t="s">
+      <c r="H72" s="3">
+        <v>2.0059127745742256</v>
+      </c>
+      <c r="I72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="I72" s="10"/>
       <c r="J72" s="10"/>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="10"/>
       <c r="E73" s="10"/>
       <c r="G73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
+    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="C74" s="10"/>
       <c r="E74" s="10"/>
       <c r="G74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
+    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
       <c r="C75" s="10"/>
       <c r="E75" s="10"/>
       <c r="G75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
       <c r="C76" s="10"/>
       <c r="E76" s="10"/>
       <c r="G76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
+    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
       <c r="C77" s="10"/>
       <c r="E77" s="10"/>
       <c r="G77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="C78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-    </row>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="C79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-    </row>
-    <row r="82" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="C82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-    </row>
-    <row r="83" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="C83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-    </row>
-    <row r="84" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="C78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="C79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="C82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="C83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="18"/>
       <c r="C85" s="24"/>
       <c r="D85" s="18"/>
@@ -2108,7 +2121,7 @@
       <c r="I85" s="18"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="18"/>
       <c r="C86" s="24"/>
       <c r="D86" s="18"/>
@@ -2119,7 +2132,7 @@
       <c r="I86" s="18"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="18"/>
       <c r="C87" s="24"/>
       <c r="D87" s="18"/>
@@ -2130,36 +2143,36 @@
       <c r="I87" s="18"/>
       <c r="K87" s="18"/>
     </row>
-    <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-    </row>
-    <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+    <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+    </row>
+    <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="14"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-    </row>
-    <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+    <row r="94" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2190,7 @@
       <c r="I96" s="30"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="28"/>
       <c r="B97" s="31" t="s">
         <v>3</v>
@@ -2197,7 +2210,7 @@
       <c r="I97" s="36"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="28"/>
       <c r="B98" s="33"/>
       <c r="C98" s="34"/>
@@ -2213,7 +2226,7 @@
       <c r="I98" s="38"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
@@ -2230,11 +2243,11 @@
       <c r="B100" s="20">
         <v>97.147531141970589</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="9"/>
       <c r="D100" s="20">
         <v>2.7496302525496841</v>
       </c>
-      <c r="E100" s="7"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="20">
         <v>88.18873248303133</v>
       </c>
@@ -2245,7 +2258,7 @@
       <c r="I100" s="25"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23"/>
       <c r="B101" s="18"/>
       <c r="C101" s="10"/>
@@ -2257,7 +2270,7 @@
       <c r="I101" s="10"/>
       <c r="K101" s="18"/>
     </row>
-    <row r="102" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2292,7 @@
       <c r="I102" s="10"/>
       <c r="K102" s="18"/>
     </row>
-    <row r="103" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2314,7 @@
       <c r="I103" s="10"/>
       <c r="K103" s="18"/>
     </row>
-    <row r="104" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2336,7 @@
       <c r="I104" s="10"/>
       <c r="K104" s="18"/>
     </row>
-    <row r="105" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
         <v>9</v>
       </c>
@@ -2345,7 +2358,7 @@
       <c r="I105" s="10"/>
       <c r="K105" s="18"/>
     </row>
-    <row r="106" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
         <v>10</v>
       </c>
@@ -2367,7 +2380,7 @@
       <c r="I106" s="10"/>
       <c r="K106" s="18"/>
     </row>
-    <row r="107" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
         <v>11</v>
       </c>
@@ -2389,7 +2402,7 @@
       <c r="I107" s="10"/>
       <c r="K107" s="18"/>
     </row>
-    <row r="108" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2424,7 @@
       <c r="I108" s="10"/>
       <c r="K108" s="18"/>
     </row>
-    <row r="109" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>13</v>
       </c>
@@ -2433,7 +2446,7 @@
       <c r="I109" s="10"/>
       <c r="K109" s="18"/>
     </row>
-    <row r="110" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2467,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2488,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +2509,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
         <v>17</v>
       </c>
@@ -2517,7 +2530,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="23"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -2542,7 +2555,7 @@
       <c r="I115" s="20"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="23"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -2554,192 +2567,203 @@
       <c r="I116" s="18"/>
       <c r="K116" s="18"/>
     </row>
-    <row r="117" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B117" s="18">
         <v>99.491109738764465</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C117" s="10"/>
       <c r="D117" s="26">
         <v>5.4661618886062691</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E117" s="10"/>
       <c r="F117" s="18">
-        <v>89.238576084356069</v>
+        <v>89.240122797291988</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H117" s="18">
-        <v>2.3818029846909949</v>
+        <v>2.383577500444467</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K117" s="18"/>
     </row>
-    <row r="118" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118" s="3">
         <v>99.63486205406717</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="8">
+      <c r="C118" s="10"/>
+      <c r="D118" s="3">
         <v>4.6615909405387956</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F118" s="8">
-        <v>89.424885689164967</v>
+      <c r="E118" s="10"/>
+      <c r="F118" s="3">
+        <v>89.417101515040812</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H118" s="8">
-        <v>1.8702577699179601</v>
+      <c r="H118" s="3">
+        <v>1.8613902626414047</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="3">
         <v>99.676120166479222</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="10"/>
+      <c r="D119" s="3">
+        <v>4.4034316499966586</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="3">
+        <v>90.211719688361043</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" s="3">
+        <v>4.2233142801838763</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="3">
+        <v>99.676120166479222</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D119" s="8">
-        <v>4.4034316499966586</v>
-      </c>
-      <c r="E119" s="10" t="s">
+      <c r="D120" s="3">
+        <v>3.7254054456396402</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F119" s="8">
-        <v>90.350216859864048</v>
-      </c>
-      <c r="G119" s="10" t="s">
+      <c r="F120" s="3">
+        <v>90.644887282226847</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H119" s="8">
-        <v>4.3833226946375481</v>
-      </c>
-      <c r="I119" s="10" t="s">
+      <c r="H120" s="3">
+        <v>4.3699118367218848</v>
+      </c>
+      <c r="I120" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J119" s="10"/>
-    </row>
-    <row r="120" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="I120" s="10"/>
       <c r="J120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="10"/>
       <c r="E121" s="10"/>
       <c r="G121" s="10"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
     </row>
-    <row r="122" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="11"/>
+    <row r="122" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
       <c r="C122" s="10"/>
       <c r="E122" s="10"/>
       <c r="G122" s="10"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
     </row>
-    <row r="123" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11"/>
+    <row r="123" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
       <c r="C123" s="10"/>
       <c r="E123" s="10"/>
       <c r="G123" s="10"/>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
     </row>
-    <row r="124" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="11"/>
+    <row r="124" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
       <c r="C124" s="10"/>
       <c r="E124" s="10"/>
       <c r="G124" s="10"/>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11"/>
+    <row r="125" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
       <c r="C125" s="10"/>
       <c r="E125" s="10"/>
       <c r="G125" s="10"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11"/>
-      <c r="C126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11"/>
-      <c r="C127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-    </row>
-    <row r="130" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="11"/>
-      <c r="C130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-    </row>
-    <row r="131" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11"/>
-      <c r="C131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-    </row>
-    <row r="132" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11"/>
-    </row>
-    <row r="133" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="C126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="C127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="C130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="C131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="18"/>
       <c r="C133" s="24"/>
       <c r="D133" s="18"/>
@@ -2750,7 +2774,7 @@
       <c r="I133" s="18"/>
       <c r="K133" s="18"/>
     </row>
-    <row r="134" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="18"/>
       <c r="C134" s="24"/>
       <c r="D134" s="18"/>
@@ -2761,7 +2785,7 @@
       <c r="I134" s="18"/>
       <c r="K134" s="18"/>
     </row>
-    <row r="135" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="18"/>
       <c r="C135" s="24"/>
       <c r="D135" s="18"/>
@@ -2772,31 +2796,31 @@
       <c r="I135" s="18"/>
       <c r="K135" s="18"/>
     </row>
-    <row r="136" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="11"/>
-    </row>
-    <row r="137" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="13" t="s">
+    <row r="136" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+    </row>
+    <row r="137" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="14"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="16"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-    </row>
-    <row r="142" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="15" t="s">
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+    </row>
+    <row r="142" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27"/>
       <c r="B143" s="27"/>
       <c r="C143" s="27"/>
       <c r="D143" s="27"/>
-      <c r="E143" s="11"/>
-    </row>
-    <row r="144" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2838,7 @@
       <c r="I144" s="30"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="28"/>
       <c r="B145" s="31" t="s">
         <v>3</v>
@@ -2834,7 +2858,7 @@
       <c r="I145" s="36"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="28"/>
       <c r="B146" s="33"/>
       <c r="C146" s="34"/>
@@ -2850,7 +2874,7 @@
       <c r="I146" s="38"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
@@ -2875,14 +2899,14 @@
       <c r="F148" s="20">
         <v>83.04575370981938</v>
       </c>
-      <c r="G148" s="7"/>
+      <c r="G148" s="9"/>
       <c r="H148" s="20">
         <v>-9.4631424347061515</v>
       </c>
-      <c r="I148" s="7"/>
+      <c r="I148" s="9"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="23"/>
       <c r="B149" s="18"/>
       <c r="C149" s="10"/>
@@ -2894,7 +2918,7 @@
       <c r="I149" s="10"/>
       <c r="K149" s="18"/>
     </row>
-    <row r="150" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
         <v>6</v>
       </c>
@@ -2916,7 +2940,7 @@
       <c r="I150" s="10"/>
       <c r="K150" s="18"/>
     </row>
-    <row r="151" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
         <v>7</v>
       </c>
@@ -2938,7 +2962,7 @@
       <c r="I151" s="10"/>
       <c r="K151" s="18"/>
     </row>
-    <row r="152" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +2984,7 @@
       <c r="I152" s="10"/>
       <c r="K152" s="18"/>
     </row>
-    <row r="153" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
         <v>9</v>
       </c>
@@ -2982,7 +3006,7 @@
       <c r="I153" s="10"/>
       <c r="K153" s="18"/>
     </row>
-    <row r="154" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +3028,7 @@
       <c r="I154" s="10"/>
       <c r="K154" s="18"/>
     </row>
-    <row r="155" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
         <v>11</v>
       </c>
@@ -3026,7 +3050,7 @@
       <c r="I155" s="10"/>
       <c r="K155" s="18"/>
     </row>
-    <row r="156" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
         <v>12</v>
       </c>
@@ -3048,7 +3072,7 @@
       <c r="I156" s="10"/>
       <c r="K156" s="18"/>
     </row>
-    <row r="157" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
         <v>13</v>
       </c>
@@ -3070,7 +3094,7 @@
       <c r="I157" s="10"/>
       <c r="K157" s="18"/>
     </row>
-    <row r="158" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="s">
         <v>14</v>
       </c>
@@ -3091,7 +3115,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="s">
         <v>15</v>
       </c>
@@ -3112,7 +3136,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
         <v>16</v>
       </c>
@@ -3133,7 +3157,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="s">
         <v>17</v>
       </c>
@@ -3154,7 +3178,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="23"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -3179,7 +3203,7 @@
       <c r="I163" s="20"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="23"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -3191,192 +3215,203 @@
       <c r="I164" s="18"/>
       <c r="K164" s="18"/>
     </row>
-    <row r="165" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B165" s="18">
         <v>94.019541372915498</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C165" s="10"/>
       <c r="D165" s="18">
         <v>1.6756489230481675</v>
       </c>
-      <c r="E165" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E165" s="10"/>
       <c r="F165" s="18">
-        <v>79.890562423475217</v>
+        <v>79.889357146587656</v>
       </c>
       <c r="G165" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H165" s="18">
-        <v>-8.8365833749976641</v>
+        <v>-8.8379587209173387</v>
       </c>
       <c r="I165" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K165" s="18"/>
     </row>
-    <row r="166" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166" s="3">
         <v>94.255034037024245</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D166" s="8">
+      <c r="C166" s="10"/>
+      <c r="D166" s="3">
         <v>1.7506275061017984</v>
       </c>
-      <c r="E166" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F166" s="8">
-        <v>79.938614282522124</v>
+      <c r="E166" s="10"/>
+      <c r="F166" s="3">
+        <v>79.937543187173091</v>
       </c>
       <c r="G166" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H166" s="8">
-        <v>-6.2230038089722273</v>
+      <c r="H166" s="3">
+        <v>-6.2242603244293431</v>
       </c>
       <c r="I166" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167" s="3">
         <v>94.255034037024245</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="10"/>
+      <c r="D167" s="3">
+        <v>1.3536132926284195</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="3">
+        <v>79.566086950856544</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H167" s="3">
+        <v>-6.622182681873845</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J167" s="10"/>
+    </row>
+    <row r="168" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="3">
+        <v>94.255034037024245</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D167" s="8">
-        <v>1.3536132926284195</v>
-      </c>
-      <c r="E167" s="10" t="s">
+      <c r="D168" s="3">
+        <v>1.3224265383666944</v>
+      </c>
+      <c r="E168" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F167" s="8">
-        <v>79.561083938224129</v>
-      </c>
-      <c r="G167" s="10" t="s">
+      <c r="F168" s="3">
+        <v>79.397212564282427</v>
+      </c>
+      <c r="G168" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H167" s="8">
-        <v>-6.628054158246921</v>
-      </c>
-      <c r="I167" s="10" t="s">
+      <c r="H168" s="3">
+        <v>-8.5742689833239076</v>
+      </c>
+      <c r="I168" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J167" s="10"/>
-    </row>
-    <row r="168" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="I168" s="10"/>
       <c r="J168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="10"/>
       <c r="E169" s="10"/>
       <c r="G169" s="10"/>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
     </row>
-    <row r="170" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
+    <row r="170" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
       <c r="C170" s="10"/>
       <c r="E170" s="10"/>
       <c r="G170" s="10"/>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
     </row>
-    <row r="171" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
+    <row r="171" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
       <c r="C171" s="10"/>
       <c r="E171" s="10"/>
       <c r="G171" s="10"/>
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
     </row>
-    <row r="172" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="11"/>
+    <row r="172" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="15"/>
       <c r="C172" s="10"/>
       <c r="E172" s="10"/>
       <c r="G172" s="10"/>
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="11"/>
+    <row r="173" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="15"/>
       <c r="C173" s="10"/>
       <c r="E173" s="10"/>
       <c r="G173" s="10"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="11"/>
-      <c r="C174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
-    </row>
-    <row r="175" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="11"/>
-      <c r="C175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
-    </row>
-    <row r="176" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
-    </row>
-    <row r="177" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
-    </row>
-    <row r="178" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="11"/>
-      <c r="C178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
-    </row>
-    <row r="179" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="11"/>
-      <c r="C179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
-    </row>
-    <row r="180" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="11"/>
-    </row>
-    <row r="181" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="15"/>
+      <c r="C174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="15"/>
+      <c r="C175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="15"/>
+      <c r="C178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="15"/>
+      <c r="C179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
+    </row>
+    <row r="181" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="18"/>
       <c r="C181" s="24"/>
       <c r="D181" s="18"/>
@@ -3387,7 +3422,7 @@
       <c r="I181" s="18"/>
       <c r="K181" s="18"/>
     </row>
-    <row r="182" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="18"/>
       <c r="C182" s="24"/>
       <c r="D182" s="18"/>
@@ -3398,7 +3433,7 @@
       <c r="I182" s="18"/>
       <c r="K182" s="18"/>
     </row>
-    <row r="183" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="18"/>
       <c r="C183" s="24"/>
       <c r="D183" s="18"/>
@@ -3409,36 +3444,36 @@
       <c r="I183" s="18"/>
       <c r="K183" s="18"/>
     </row>
-    <row r="184" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="11"/>
-    </row>
-    <row r="185" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="13" t="s">
+    <row r="184" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="15"/>
+    </row>
+    <row r="185" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B185" s="14"/>
+      <c r="B185" s="13"/>
       <c r="C185" s="16"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-    </row>
-    <row r="186" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+    </row>
+    <row r="186" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="15" t="s">
+    <row r="190" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="27"/>
       <c r="C191" s="27"/>
       <c r="D191" s="27"/>
-      <c r="E191" s="11"/>
-    </row>
-    <row r="192" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3491,7 @@
       <c r="I192" s="30"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="28"/>
       <c r="B193" s="31" t="s">
         <v>3</v>
@@ -3476,7 +3511,7 @@
       <c r="I193" s="36"/>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="28"/>
       <c r="B194" s="33"/>
       <c r="C194" s="34"/>
@@ -3492,7 +3527,7 @@
       <c r="I194" s="38"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
@@ -3517,14 +3552,14 @@
       <c r="F196" s="20">
         <v>104.71052499973814</v>
       </c>
-      <c r="G196" s="7"/>
+      <c r="G196" s="9"/>
       <c r="H196" s="20">
         <v>-1.1329390085194957</v>
       </c>
-      <c r="I196" s="7"/>
+      <c r="I196" s="9"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="23"/>
       <c r="B197" s="18"/>
       <c r="C197" s="10"/>
@@ -3536,7 +3571,7 @@
       <c r="I197" s="10"/>
       <c r="K197" s="18"/>
     </row>
-    <row r="198" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
         <v>6</v>
       </c>
@@ -3558,7 +3593,7 @@
       <c r="I198" s="10"/>
       <c r="K198" s="18"/>
     </row>
-    <row r="199" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3615,7 @@
       <c r="I199" s="10"/>
       <c r="K199" s="18"/>
     </row>
-    <row r="200" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3637,7 @@
       <c r="I200" s="10"/>
       <c r="K200" s="18"/>
     </row>
-    <row r="201" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="17" t="s">
         <v>9</v>
       </c>
@@ -3624,7 +3659,7 @@
       <c r="I201" s="10"/>
       <c r="K201" s="18"/>
     </row>
-    <row r="202" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="17" t="s">
         <v>10</v>
       </c>
@@ -3646,7 +3681,7 @@
       <c r="I202" s="10"/>
       <c r="K202" s="18"/>
     </row>
-    <row r="203" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="17" t="s">
         <v>11</v>
       </c>
@@ -3668,7 +3703,7 @@
       <c r="I203" s="10"/>
       <c r="K203" s="18"/>
     </row>
-    <row r="204" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="17" t="s">
         <v>12</v>
       </c>
@@ -3690,7 +3725,7 @@
       <c r="I204" s="10"/>
       <c r="K204" s="18"/>
     </row>
-    <row r="205" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="17" t="s">
         <v>13</v>
       </c>
@@ -3712,7 +3747,7 @@
       <c r="I205" s="10"/>
       <c r="K205" s="18"/>
     </row>
-    <row r="206" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="s">
         <v>14</v>
       </c>
@@ -3733,7 +3768,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +3789,7 @@
       </c>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
         <v>16</v>
       </c>
@@ -3775,7 +3810,7 @@
       </c>
       <c r="I208" s="10"/>
     </row>
-    <row r="209" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
         <v>17</v>
       </c>
@@ -3796,7 +3831,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="23"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
@@ -3821,7 +3856,7 @@
       <c r="I211" s="20"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="23"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
@@ -3833,7 +3868,7 @@
       <c r="I212" s="18"/>
       <c r="K212" s="18"/>
     </row>
-    <row r="213" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="17" t="s">
         <v>6</v>
       </c>
@@ -3855,158 +3890,173 @@
       <c r="I213" s="10"/>
       <c r="K213" s="18"/>
     </row>
-    <row r="214" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B214" s="8">
+      <c r="B214" s="3">
         <v>97.267142848090671</v>
       </c>
-      <c r="C214" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D214" s="8">
+      <c r="C214" s="10"/>
+      <c r="D214" s="3">
         <v>2.5759069315083982</v>
       </c>
-      <c r="E214" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F214" s="8">
+      <c r="E214" s="10"/>
+      <c r="F214" s="3">
         <v>104.4826844789667</v>
       </c>
       <c r="G214" s="10"/>
-      <c r="H214" s="8">
+      <c r="H214" s="3">
         <v>-2.4125142111047215</v>
       </c>
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
     </row>
-    <row r="215" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B215" s="8">
-        <v>97.264269488621579</v>
+      <c r="B215" s="3">
+        <v>97.711510408561423</v>
       </c>
       <c r="C215" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2.7550996836046115</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F215" s="3">
+        <v>104.4826844789667</v>
+      </c>
+      <c r="G215" s="10"/>
+      <c r="H215" s="3">
+        <v>-1.2571276140021292</v>
+      </c>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+    </row>
+    <row r="216" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="3">
+        <v>98.918091707897034</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D215" s="8">
-        <v>2.2847734639110717</v>
-      </c>
-      <c r="E215" s="10" t="s">
+      <c r="D216" s="3">
+        <v>3.9820101519272511</v>
+      </c>
+      <c r="E216" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F215" s="8">
-        <v>104.4826844789667</v>
-      </c>
-      <c r="G215" s="10" t="s">
+      <c r="F216" s="3">
+        <v>104.85172782742761</v>
+      </c>
+      <c r="G216" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H215" s="8">
-        <v>-1.2571276140021292</v>
-      </c>
-      <c r="I215" s="10" t="s">
+      <c r="H216" s="3">
+        <v>-0.54108820013638592</v>
+      </c>
+      <c r="I216" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J215" s="10"/>
-    </row>
-    <row r="216" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="I216" s="10"/>
       <c r="J216" s="10"/>
     </row>
-    <row r="217" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="10"/>
       <c r="E217" s="10"/>
       <c r="G217" s="10"/>
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
     </row>
-    <row r="218" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="11"/>
+    <row r="218" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="15"/>
       <c r="C218" s="10"/>
       <c r="E218" s="10"/>
       <c r="G218" s="10"/>
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
     </row>
-    <row r="219" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="11"/>
+    <row r="219" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="15"/>
       <c r="C219" s="10"/>
       <c r="E219" s="10"/>
       <c r="G219" s="10"/>
       <c r="I219" s="10"/>
       <c r="J219" s="10"/>
     </row>
-    <row r="220" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="11"/>
+    <row r="220" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="15"/>
       <c r="C220" s="10"/>
       <c r="E220" s="10"/>
       <c r="G220" s="10"/>
       <c r="I220" s="10"/>
       <c r="J220" s="10"/>
     </row>
-    <row r="221" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="11"/>
+    <row r="221" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="15"/>
       <c r="C221" s="10"/>
       <c r="E221" s="10"/>
       <c r="G221" s="10"/>
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
     </row>
-    <row r="222" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="11"/>
-      <c r="C222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="G222" s="9"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-    </row>
-    <row r="223" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="11"/>
-      <c r="C223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="G223" s="9"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="9"/>
-    </row>
-    <row r="224" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C224" s="9"/>
-      <c r="E224" s="9"/>
-      <c r="G224" s="9"/>
-      <c r="I224" s="9"/>
-      <c r="J224" s="9"/>
-    </row>
-    <row r="225" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C225" s="9"/>
-      <c r="E225" s="9"/>
-      <c r="G225" s="9"/>
-      <c r="I225" s="9"/>
-      <c r="J225" s="9"/>
-    </row>
-    <row r="226" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="11"/>
-      <c r="C226" s="9"/>
-      <c r="E226" s="9"/>
-      <c r="G226" s="9"/>
-      <c r="I226" s="9"/>
-      <c r="J226" s="9"/>
-    </row>
-    <row r="227" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="11"/>
-      <c r="C227" s="9"/>
-      <c r="E227" s="9"/>
-      <c r="G227" s="9"/>
-      <c r="I227" s="9"/>
-      <c r="J227" s="9"/>
-    </row>
-    <row r="228" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="11"/>
-    </row>
-    <row r="229" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15"/>
+      <c r="C222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+    </row>
+    <row r="223" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="15"/>
+      <c r="C223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+    </row>
+    <row r="224" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+    </row>
+    <row r="225" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+    </row>
+    <row r="226" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="15"/>
+      <c r="C226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+    </row>
+    <row r="227" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="15"/>
+      <c r="C227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+    </row>
+    <row r="228" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="15"/>
+    </row>
+    <row r="229" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="18"/>
       <c r="C229" s="24"/>
       <c r="D229" s="18"/>
@@ -4017,7 +4067,7 @@
       <c r="I229" s="18"/>
       <c r="K229" s="18"/>
     </row>
-    <row r="230" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="18"/>
       <c r="C230" s="24"/>
       <c r="D230" s="18"/>
@@ -4028,7 +4078,7 @@
       <c r="I230" s="18"/>
       <c r="K230" s="18"/>
     </row>
-    <row r="231" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="18"/>
       <c r="C231" s="24"/>
       <c r="D231" s="18"/>
@@ -4039,36 +4089,36 @@
       <c r="I231" s="18"/>
       <c r="K231" s="18"/>
     </row>
-    <row r="232" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="11"/>
-    </row>
-    <row r="233" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="13" t="s">
+    <row r="232" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="15"/>
+    </row>
+    <row r="233" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B233" s="14"/>
+      <c r="B233" s="13"/>
       <c r="C233" s="16"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
-    </row>
-    <row r="234" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+    </row>
+    <row r="234" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="15" t="s">
+    <row r="238" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="27"/>
       <c r="C239" s="27"/>
       <c r="D239" s="27"/>
-      <c r="E239" s="11"/>
-    </row>
-    <row r="240" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E239" s="15"/>
+    </row>
+    <row r="240" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
         <v>0</v>
       </c>
@@ -4086,7 +4136,7 @@
       <c r="I240" s="30"/>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="28"/>
       <c r="B241" s="31" t="s">
         <v>3</v>
@@ -4106,7 +4156,7 @@
       <c r="I241" s="36"/>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="28"/>
       <c r="B242" s="33"/>
       <c r="C242" s="34"/>
@@ -4122,7 +4172,7 @@
       <c r="I242" s="38"/>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
       <c r="D243" s="18"/>
@@ -4154,7 +4204,7 @@
       <c r="I244" s="25"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="23"/>
       <c r="B245" s="18"/>
       <c r="C245" s="10"/>
@@ -4166,7 +4216,7 @@
       <c r="I245" s="10"/>
       <c r="K245" s="18"/>
     </row>
-    <row r="246" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="17" t="s">
         <v>6</v>
       </c>
@@ -4188,7 +4238,7 @@
       <c r="I246" s="10"/>
       <c r="K246" s="18"/>
     </row>
-    <row r="247" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17" t="s">
         <v>7</v>
       </c>
@@ -4210,7 +4260,7 @@
       <c r="I247" s="10"/>
       <c r="K247" s="18"/>
     </row>
-    <row r="248" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17" t="s">
         <v>8</v>
       </c>
@@ -4232,7 +4282,7 @@
       <c r="I248" s="10"/>
       <c r="K248" s="18"/>
     </row>
-    <row r="249" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17" t="s">
         <v>9</v>
       </c>
@@ -4254,7 +4304,7 @@
       <c r="I249" s="10"/>
       <c r="K249" s="18"/>
     </row>
-    <row r="250" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="17" t="s">
         <v>10</v>
       </c>
@@ -4276,7 +4326,7 @@
       <c r="I250" s="10"/>
       <c r="K250" s="18"/>
     </row>
-    <row r="251" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17" t="s">
         <v>11</v>
       </c>
@@ -4298,7 +4348,7 @@
       <c r="I251" s="10"/>
       <c r="K251" s="18"/>
     </row>
-    <row r="252" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17" t="s">
         <v>12</v>
       </c>
@@ -4320,7 +4370,7 @@
       <c r="I252" s="10"/>
       <c r="K252" s="18"/>
     </row>
-    <row r="253" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="17" t="s">
         <v>13</v>
       </c>
@@ -4342,7 +4392,7 @@
       <c r="I253" s="10"/>
       <c r="K253" s="18"/>
     </row>
-    <row r="254" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="23" t="s">
         <v>14</v>
       </c>
@@ -4363,7 +4413,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="23" t="s">
         <v>15</v>
       </c>
@@ -4384,7 +4434,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="23" t="s">
         <v>16</v>
       </c>
@@ -4405,7 +4455,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="23" t="s">
         <v>17</v>
       </c>
@@ -4426,7 +4476,7 @@
       </c>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="23"/>
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
@@ -4451,7 +4501,7 @@
       <c r="I259" s="20"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="23"/>
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
@@ -4463,192 +4513,215 @@
       <c r="I260" s="18"/>
       <c r="K260" s="18"/>
     </row>
-    <row r="261" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B261" s="18">
-        <v>88.25534459045079</v>
+        <v>88.374607992490382</v>
       </c>
       <c r="C261" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D261" s="18">
-        <v>15.476580853080213</v>
+        <v>15.632629531518315</v>
       </c>
       <c r="E261" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F261" s="18">
-        <v>99.904708595732743</v>
+        <v>99.917440829931337</v>
       </c>
       <c r="G261" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H261" s="18">
-        <v>8.3356588314654765</v>
+        <v>8.3494655378729021</v>
       </c>
       <c r="I261" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K261" s="18"/>
     </row>
-    <row r="262" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B262" s="8">
-        <v>89.251765610256314</v>
+      <c r="B262" s="3">
+        <v>89.637232972093244</v>
       </c>
       <c r="C262" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D262" s="8">
-        <v>15.240479104838013</v>
+      <c r="D262" s="3">
+        <v>15.738188513202477</v>
       </c>
       <c r="E262" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F262" s="8">
-        <v>100.13424348531538</v>
+      <c r="F262" s="3">
+        <v>100.19516985480806</v>
       </c>
       <c r="G262" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H262" s="8">
-        <v>7.631400341270056</v>
+      <c r="H262" s="3">
+        <v>7.6968883325701398</v>
       </c>
       <c r="I262" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J262" s="10"/>
     </row>
-    <row r="263" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B263" s="8">
-        <v>91.79761917322071</v>
+      <c r="B263" s="3">
+        <v>92.035528889056721</v>
       </c>
       <c r="C263" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D263" s="3">
+        <v>18.218503561314272</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F263" s="3">
+        <v>101.31936346452157</v>
+      </c>
+      <c r="G263" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H263" s="3">
+        <v>9.6925800700691678</v>
+      </c>
+      <c r="I263" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J263" s="10"/>
+    </row>
+    <row r="264" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="3">
+        <v>93.704399297166674</v>
+      </c>
+      <c r="C264" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D263" s="8">
-        <v>17.912911460868642</v>
-      </c>
-      <c r="E263" s="10" t="s">
+      <c r="D264" s="3">
+        <v>19.717530197662136</v>
+      </c>
+      <c r="E264" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F263" s="8">
-        <v>101.24808872820314</v>
-      </c>
-      <c r="G263" s="10" t="s">
+      <c r="F264" s="3">
+        <v>102.61762759631472</v>
+      </c>
+      <c r="G264" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H263" s="8">
-        <v>9.6154150598160015</v>
-      </c>
-      <c r="I263" s="10" t="s">
+      <c r="H264" s="3">
+        <v>10.481218768841295</v>
+      </c>
+      <c r="I264" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J263" s="10"/>
-    </row>
-    <row r="264" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C264" s="10"/>
-      <c r="E264" s="10"/>
-      <c r="G264" s="10"/>
-      <c r="I264" s="10"/>
       <c r="J264" s="10"/>
     </row>
-    <row r="265" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="10"/>
       <c r="E265" s="10"/>
       <c r="G265" s="10"/>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
     </row>
-    <row r="266" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="11"/>
+    <row r="266" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="15"/>
       <c r="C266" s="10"/>
       <c r="E266" s="10"/>
       <c r="G266" s="10"/>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
     </row>
-    <row r="267" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="11"/>
+    <row r="267" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="15"/>
       <c r="C267" s="10"/>
       <c r="E267" s="10"/>
       <c r="G267" s="10"/>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
     </row>
-    <row r="268" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="11"/>
+    <row r="268" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="15"/>
       <c r="C268" s="10"/>
       <c r="E268" s="10"/>
       <c r="G268" s="10"/>
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
     </row>
-    <row r="269" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="11"/>
+    <row r="269" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="15"/>
       <c r="C269" s="10"/>
       <c r="E269" s="10"/>
       <c r="G269" s="10"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
     </row>
-    <row r="270" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="11"/>
-      <c r="C270" s="9"/>
-      <c r="E270" s="9"/>
-      <c r="G270" s="9"/>
-      <c r="I270" s="9"/>
-      <c r="J270" s="9"/>
-    </row>
-    <row r="271" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="11"/>
-      <c r="C271" s="9"/>
-      <c r="E271" s="9"/>
-      <c r="G271" s="9"/>
-      <c r="I271" s="9"/>
-      <c r="J271" s="9"/>
-    </row>
-    <row r="272" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C272" s="9"/>
-      <c r="E272" s="9"/>
-      <c r="G272" s="9"/>
-      <c r="I272" s="9"/>
-      <c r="J272" s="9"/>
-    </row>
-    <row r="273" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C273" s="9"/>
-      <c r="E273" s="9"/>
-      <c r="G273" s="9"/>
-      <c r="I273" s="9"/>
-      <c r="J273" s="9"/>
-    </row>
-    <row r="274" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="11"/>
-      <c r="C274" s="9"/>
-      <c r="E274" s="9"/>
-      <c r="G274" s="9"/>
-      <c r="I274" s="9"/>
-      <c r="J274" s="9"/>
-    </row>
-    <row r="275" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="11"/>
-      <c r="C275" s="9"/>
-      <c r="E275" s="9"/>
-      <c r="G275" s="9"/>
-      <c r="I275" s="9"/>
-      <c r="J275" s="9"/>
-    </row>
-    <row r="276" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="11"/>
-    </row>
-    <row r="277" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="15"/>
+      <c r="C270" s="4"/>
+      <c r="E270" s="4"/>
+      <c r="G270" s="4"/>
+      <c r="I270" s="4"/>
+      <c r="J270" s="4"/>
+    </row>
+    <row r="271" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="15"/>
+      <c r="C271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="G271" s="4"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4"/>
+    </row>
+    <row r="272" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="G272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+    </row>
+    <row r="273" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="G273" s="4"/>
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+    </row>
+    <row r="274" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="15"/>
+      <c r="C274" s="4"/>
+      <c r="E274" s="4"/>
+      <c r="G274" s="4"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="4"/>
+    </row>
+    <row r="275" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="15"/>
+      <c r="C275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="G275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+    </row>
+    <row r="276" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="15"/>
+    </row>
+    <row r="277" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="18"/>
       <c r="C277" s="24"/>
       <c r="D277" s="18"/>
@@ -4659,7 +4732,7 @@
       <c r="I277" s="18"/>
       <c r="K277" s="18"/>
     </row>
-    <row r="278" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="18"/>
       <c r="C278" s="24"/>
       <c r="D278" s="18"/>
@@ -4670,7 +4743,7 @@
       <c r="I278" s="18"/>
       <c r="K278" s="18"/>
     </row>
-    <row r="279" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="18"/>
       <c r="C279" s="24"/>
       <c r="D279" s="18"/>
@@ -4681,34 +4754,34 @@
       <c r="I279" s="18"/>
       <c r="K279" s="18"/>
     </row>
-    <row r="280" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="11"/>
-    </row>
-    <row r="281" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="13" t="s">
+    <row r="280" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="15"/>
+    </row>
+    <row r="281" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B281" s="14"/>
+      <c r="B281" s="13"/>
       <c r="C281" s="16"/>
-      <c r="D281" s="14"/>
-      <c r="E281" s="14"/>
-    </row>
-    <row r="282" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="11"/>
-    </row>
-    <row r="286" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="15" t="s">
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
+    </row>
+    <row r="282" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="15"/>
+    </row>
+    <row r="286" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="27"/>
       <c r="B287" s="27"/>
       <c r="C287" s="27"/>
       <c r="D287" s="27"/>
-      <c r="E287" s="11"/>
-    </row>
-    <row r="288" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E287" s="15"/>
+    </row>
+    <row r="288" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>0</v>
       </c>
@@ -4726,7 +4799,7 @@
       <c r="I288" s="30"/>
       <c r="J288" s="2"/>
     </row>
-    <row r="289" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="28"/>
       <c r="B289" s="31" t="s">
         <v>3</v>
@@ -4746,7 +4819,7 @@
       <c r="I289" s="36"/>
       <c r="J289" s="2"/>
     </row>
-    <row r="290" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="28"/>
       <c r="B290" s="33"/>
       <c r="C290" s="34"/>
@@ -4762,7 +4835,7 @@
       <c r="I290" s="38"/>
       <c r="J290" s="2"/>
     </row>
-    <row r="291" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="18"/>
@@ -4779,30 +4852,22 @@
       <c r="B292" s="20">
         <v>80.201916513689767</v>
       </c>
-      <c r="C292" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="C292" s="25"/>
       <c r="D292" s="20">
         <v>0.42664373641436715</v>
       </c>
-      <c r="E292" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="E292" s="25"/>
       <c r="F292" s="20">
         <v>104.35324745872954</v>
       </c>
-      <c r="G292" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="G292" s="25"/>
       <c r="H292" s="20">
         <v>3.906736800179611</v>
       </c>
-      <c r="I292" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="I292" s="25"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="23"/>
       <c r="B293" s="18"/>
       <c r="C293" s="10"/>
@@ -4814,7 +4879,7 @@
       <c r="I293" s="10"/>
       <c r="K293" s="18"/>
     </row>
-    <row r="294" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="17" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +4901,7 @@
       <c r="I294" s="10"/>
       <c r="K294" s="18"/>
     </row>
-    <row r="295" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="17" t="s">
         <v>7</v>
       </c>
@@ -4858,7 +4923,7 @@
       <c r="I295" s="10"/>
       <c r="K295" s="18"/>
     </row>
-    <row r="296" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="17" t="s">
         <v>8</v>
       </c>
@@ -4880,7 +4945,7 @@
       <c r="I296" s="10"/>
       <c r="K296" s="18"/>
     </row>
-    <row r="297" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="17" t="s">
         <v>9</v>
       </c>
@@ -4902,7 +4967,7 @@
       <c r="I297" s="10"/>
       <c r="K297" s="18"/>
     </row>
-    <row r="298" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="17" t="s">
         <v>10</v>
       </c>
@@ -4924,7 +4989,7 @@
       <c r="I298" s="10"/>
       <c r="K298" s="18"/>
     </row>
-    <row r="299" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="17" t="s">
         <v>11</v>
       </c>
@@ -4946,7 +5011,7 @@
       <c r="I299" s="10"/>
       <c r="K299" s="18"/>
     </row>
-    <row r="300" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="17" t="s">
         <v>12</v>
       </c>
@@ -4968,7 +5033,7 @@
       <c r="I300" s="10"/>
       <c r="K300" s="18"/>
     </row>
-    <row r="301" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="17" t="s">
         <v>13</v>
       </c>
@@ -4990,7 +5055,7 @@
       <c r="I301" s="10"/>
       <c r="K301" s="18"/>
     </row>
-    <row r="302" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="23" t="s">
         <v>14</v>
       </c>
@@ -5011,7 +5076,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="23" t="s">
         <v>15</v>
       </c>
@@ -5032,7 +5097,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="23" t="s">
         <v>16</v>
       </c>
@@ -5053,36 +5118,28 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B305" s="18">
         <v>80.160835493682171</v>
       </c>
-      <c r="C305" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C305" s="10"/>
       <c r="D305" s="18">
         <v>0.34109988267549962</v>
       </c>
-      <c r="E305" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E305" s="10"/>
       <c r="F305" s="18">
         <v>106.07535371403412</v>
       </c>
-      <c r="G305" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G305" s="10"/>
       <c r="H305" s="18">
         <v>5.7423862724014008</v>
       </c>
-      <c r="I305" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I305" s="10"/>
+    </row>
+    <row r="306" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="23"/>
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
@@ -5107,7 +5164,7 @@
       <c r="I307" s="20"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="23"/>
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
@@ -5119,18 +5176,18 @@
       <c r="I308" s="18"/>
       <c r="K308" s="18"/>
     </row>
-    <row r="309" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B309" s="18">
-        <v>79.592930409850965</v>
+        <v>79.708174936021351</v>
       </c>
       <c r="C309" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D309" s="26">
-        <v>-1.6224598525416134</v>
+        <v>-1.4800166362694989</v>
       </c>
       <c r="E309" s="10" t="s">
         <v>41</v>
@@ -5138,173 +5195,188 @@
       <c r="F309" s="18">
         <v>107.46860448066853</v>
       </c>
-      <c r="G309" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G309" s="10"/>
       <c r="H309" s="18">
         <v>6.4815260995091606</v>
       </c>
-      <c r="I309" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="I309" s="10"/>
       <c r="K309" s="18"/>
     </row>
-    <row r="310" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B310" s="8">
-        <v>80.747623807076664</v>
+      <c r="B310" s="3">
+        <v>80.625830408957242</v>
       </c>
       <c r="C310" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D310" s="8">
-        <v>0.76680345985435938</v>
+      <c r="D310" s="3">
+        <v>0.61481469743169814</v>
       </c>
       <c r="E310" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F310" s="8">
+      <c r="F310" s="3">
         <v>107.59313643756303</v>
       </c>
-      <c r="G310" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H310" s="8">
+      <c r="G310" s="10"/>
+      <c r="H310" s="3">
         <v>5.8889762220882158</v>
       </c>
-      <c r="I310" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="I310" s="10"/>
       <c r="J310" s="10"/>
     </row>
-    <row r="311" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B311" s="8">
-        <v>81.42223734730976</v>
+      <c r="B311" s="3">
+        <v>81.161045290722711</v>
       </c>
       <c r="C311" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311" s="3">
+        <v>2.1329962698689808</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F311" s="3">
+        <v>108.02283081970204</v>
+      </c>
+      <c r="G311" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H311" s="3">
+        <v>5.6383745883737069</v>
+      </c>
+      <c r="I311" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J311" s="10"/>
+    </row>
+    <row r="312" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="3">
+        <v>81.044094968471057</v>
+      </c>
+      <c r="C312" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D311" s="8">
-        <v>2.4616801507328701</v>
-      </c>
-      <c r="E311" s="10" t="s">
+      <c r="D312" s="3">
+        <v>1.5004624367999764</v>
+      </c>
+      <c r="E312" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F311" s="8">
-        <v>108.0118025641235</v>
-      </c>
-      <c r="G311" s="10" t="s">
+      <c r="F312" s="3">
+        <v>108.64674050152276</v>
+      </c>
+      <c r="G312" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H311" s="8">
-        <v>5.6275897664520791</v>
-      </c>
-      <c r="I311" s="10" t="s">
+      <c r="H312" s="3">
+        <v>5.1826022217596801</v>
+      </c>
+      <c r="I312" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J311" s="10"/>
-    </row>
-    <row r="312" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C312" s="10"/>
-      <c r="E312" s="10"/>
-      <c r="G312" s="10"/>
-      <c r="I312" s="10"/>
       <c r="J312" s="10"/>
     </row>
-    <row r="313" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="10"/>
       <c r="E313" s="10"/>
       <c r="G313" s="10"/>
       <c r="I313" s="10"/>
       <c r="J313" s="10"/>
     </row>
-    <row r="314" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="11"/>
+    <row r="314" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="15"/>
       <c r="C314" s="10"/>
       <c r="E314" s="10"/>
       <c r="G314" s="10"/>
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
     </row>
-    <row r="315" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="11"/>
+    <row r="315" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="15"/>
       <c r="C315" s="10"/>
       <c r="E315" s="10"/>
       <c r="G315" s="10"/>
       <c r="I315" s="10"/>
       <c r="J315" s="10"/>
     </row>
-    <row r="316" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="11"/>
+    <row r="316" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="15"/>
       <c r="C316" s="10"/>
       <c r="E316" s="10"/>
       <c r="G316" s="10"/>
       <c r="I316" s="10"/>
       <c r="J316" s="10"/>
     </row>
-    <row r="317" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="11"/>
+    <row r="317" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="15"/>
       <c r="C317" s="10"/>
       <c r="E317" s="10"/>
       <c r="G317" s="10"/>
       <c r="I317" s="10"/>
       <c r="J317" s="10"/>
     </row>
-    <row r="318" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="11"/>
-      <c r="C318" s="9"/>
-      <c r="E318" s="9"/>
-      <c r="G318" s="9"/>
-      <c r="I318" s="9"/>
-      <c r="J318" s="9"/>
-    </row>
-    <row r="319" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="11"/>
-      <c r="C319" s="9"/>
-      <c r="E319" s="9"/>
-      <c r="G319" s="9"/>
-      <c r="I319" s="9"/>
-      <c r="J319" s="9"/>
-    </row>
-    <row r="320" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C320" s="9"/>
-      <c r="E320" s="9"/>
-      <c r="G320" s="9"/>
-      <c r="I320" s="9"/>
-      <c r="J320" s="9"/>
-    </row>
-    <row r="321" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C321" s="9"/>
-      <c r="E321" s="9"/>
-      <c r="G321" s="9"/>
-      <c r="I321" s="9"/>
-      <c r="J321" s="9"/>
-    </row>
-    <row r="322" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="11"/>
-      <c r="C322" s="9"/>
-      <c r="E322" s="9"/>
-      <c r="G322" s="9"/>
-      <c r="I322" s="9"/>
-      <c r="J322" s="9"/>
-    </row>
-    <row r="323" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="11"/>
-      <c r="C323" s="9"/>
-      <c r="E323" s="9"/>
-      <c r="G323" s="9"/>
-      <c r="I323" s="9"/>
-      <c r="J323" s="9"/>
-    </row>
-    <row r="324" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="11"/>
-    </row>
-    <row r="325" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="15"/>
+      <c r="C318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="G318" s="4"/>
+      <c r="I318" s="4"/>
+      <c r="J318" s="4"/>
+    </row>
+    <row r="319" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="15"/>
+      <c r="C319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="G319" s="4"/>
+      <c r="I319" s="4"/>
+      <c r="J319" s="4"/>
+    </row>
+    <row r="320" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="I320" s="4"/>
+      <c r="J320" s="4"/>
+    </row>
+    <row r="321" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="I321" s="4"/>
+      <c r="J321" s="4"/>
+    </row>
+    <row r="322" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="15"/>
+      <c r="C322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="G322" s="4"/>
+      <c r="I322" s="4"/>
+      <c r="J322" s="4"/>
+    </row>
+    <row r="323" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="15"/>
+      <c r="C323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="G323" s="4"/>
+      <c r="I323" s="4"/>
+      <c r="J323" s="4"/>
+    </row>
+    <row r="324" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="15"/>
+    </row>
+    <row r="325" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="18"/>
       <c r="C325" s="24"/>
       <c r="D325" s="18"/>
@@ -5315,7 +5387,7 @@
       <c r="I325" s="18"/>
       <c r="K325" s="18"/>
     </row>
-    <row r="326" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="18"/>
       <c r="C326" s="24"/>
       <c r="D326" s="18"/>
@@ -5326,7 +5398,7 @@
       <c r="I326" s="18"/>
       <c r="K326" s="18"/>
     </row>
-    <row r="327" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="18"/>
       <c r="C327" s="24"/>
       <c r="D327" s="18"/>
@@ -5337,36 +5409,36 @@
       <c r="I327" s="18"/>
       <c r="K327" s="18"/>
     </row>
-    <row r="328" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="11"/>
-    </row>
-    <row r="329" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="13" t="s">
+    <row r="328" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="15"/>
+    </row>
+    <row r="329" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B329" s="14"/>
+      <c r="B329" s="13"/>
       <c r="C329" s="16"/>
-      <c r="D329" s="14"/>
-      <c r="E329" s="14"/>
-    </row>
-    <row r="330" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
+    </row>
+    <row r="330" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="15" t="s">
+    <row r="334" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="27"/>
       <c r="B335" s="27"/>
       <c r="C335" s="27"/>
       <c r="D335" s="27"/>
-      <c r="E335" s="11"/>
-    </row>
-    <row r="336" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E335" s="15"/>
+    </row>
+    <row r="336" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
         <v>0</v>
       </c>
@@ -5384,7 +5456,7 @@
       <c r="I336" s="30"/>
       <c r="J336" s="2"/>
     </row>
-    <row r="337" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28"/>
       <c r="B337" s="31" t="s">
         <v>3</v>
@@ -5404,7 +5476,7 @@
       <c r="I337" s="36"/>
       <c r="J337" s="2"/>
     </row>
-    <row r="338" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="28"/>
       <c r="B338" s="33"/>
       <c r="C338" s="34"/>
@@ -5420,7 +5492,7 @@
       <c r="I338" s="38"/>
       <c r="J338" s="2"/>
     </row>
-    <row r="339" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
       <c r="D339" s="18"/>
@@ -5445,18 +5517,14 @@
       <c r="F340" s="20">
         <v>85.359818655727622</v>
       </c>
-      <c r="G340" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G340" s="10"/>
       <c r="H340" s="20">
         <v>4.6313628555854081</v>
       </c>
-      <c r="I340" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="I340" s="10"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="23"/>
       <c r="B341" s="18"/>
       <c r="C341" s="10"/>
@@ -5468,7 +5536,7 @@
       <c r="I341" s="10"/>
       <c r="K341" s="18"/>
     </row>
-    <row r="342" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17" t="s">
         <v>6</v>
       </c>
@@ -5490,7 +5558,7 @@
       <c r="I342" s="10"/>
       <c r="K342" s="18"/>
     </row>
-    <row r="343" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="17" t="s">
         <v>7</v>
       </c>
@@ -5512,7 +5580,7 @@
       <c r="I343" s="10"/>
       <c r="K343" s="18"/>
     </row>
-    <row r="344" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="17" t="s">
         <v>8</v>
       </c>
@@ -5534,7 +5602,7 @@
       <c r="I344" s="10"/>
       <c r="K344" s="18"/>
     </row>
-    <row r="345" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="17" t="s">
         <v>9</v>
       </c>
@@ -5556,7 +5624,7 @@
       <c r="I345" s="10"/>
       <c r="K345" s="18"/>
     </row>
-    <row r="346" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="17" t="s">
         <v>10</v>
       </c>
@@ -5578,7 +5646,7 @@
       <c r="I346" s="10"/>
       <c r="K346" s="18"/>
     </row>
-    <row r="347" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="17" t="s">
         <v>11</v>
       </c>
@@ -5600,7 +5668,7 @@
       <c r="I347" s="10"/>
       <c r="K347" s="18"/>
     </row>
-    <row r="348" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="17" t="s">
         <v>12</v>
       </c>
@@ -5622,7 +5690,7 @@
       <c r="I348" s="10"/>
       <c r="K348" s="18"/>
     </row>
-    <row r="349" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="17" t="s">
         <v>13</v>
       </c>
@@ -5644,7 +5712,7 @@
       <c r="I349" s="10"/>
       <c r="K349" s="18"/>
     </row>
-    <row r="350" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="23" t="s">
         <v>14</v>
       </c>
@@ -5665,7 +5733,7 @@
       </c>
       <c r="I350" s="10"/>
     </row>
-    <row r="351" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="23" t="s">
         <v>15</v>
       </c>
@@ -5686,7 +5754,7 @@
       </c>
       <c r="I351" s="10"/>
     </row>
-    <row r="352" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="23" t="s">
         <v>16</v>
       </c>
@@ -5707,7 +5775,7 @@
       </c>
       <c r="I352" s="10"/>
     </row>
-    <row r="353" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="23" t="s">
         <v>17</v>
       </c>
@@ -5722,17 +5790,13 @@
       <c r="F353" s="18">
         <v>88.434588811039973</v>
       </c>
-      <c r="G353" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G353" s="10"/>
       <c r="H353" s="18">
         <v>8.2485520709177251</v>
       </c>
-      <c r="I353" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I353" s="10"/>
+    </row>
+    <row r="354" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="23"/>
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
@@ -5757,7 +5821,7 @@
       <c r="I355" s="20"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="23"/>
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
@@ -5769,7 +5833,7 @@
       <c r="I356" s="18"/>
       <c r="K356" s="18"/>
     </row>
-    <row r="357" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="17" t="s">
         <v>6</v>
       </c>
@@ -5784,173 +5848,184 @@
       <c r="F357" s="18">
         <v>89.627674029656546</v>
       </c>
-      <c r="G357" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G357" s="10"/>
       <c r="H357" s="18">
         <v>10.593174339484634</v>
       </c>
-      <c r="I357" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="I357" s="10"/>
       <c r="K357" s="18"/>
     </row>
-    <row r="358" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B358" s="8">
+      <c r="B358" s="3">
         <v>104.32187614168812</v>
       </c>
-      <c r="C358" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D358" s="8">
+      <c r="C358" s="10"/>
+      <c r="D358" s="3">
         <v>3.6185316218925401</v>
       </c>
-      <c r="E358" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F358" s="8">
+      <c r="E358" s="10"/>
+      <c r="F358" s="3">
         <v>90.437556830182857</v>
       </c>
-      <c r="G358" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H358" s="8">
+      <c r="G358" s="10"/>
+      <c r="H358" s="3">
         <v>11.025195171927082</v>
       </c>
-      <c r="I358" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="I358" s="10"/>
       <c r="J358" s="10"/>
     </row>
-    <row r="359" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B359" s="8">
-        <v>104.24501588116271</v>
+      <c r="B359" s="3">
+        <v>104.34226279929028</v>
       </c>
       <c r="C359" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D359" s="3">
+        <v>4.2000578372960895</v>
+      </c>
+      <c r="E359" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F359" s="3">
+        <v>91.746196596558221</v>
+      </c>
+      <c r="G359" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H359" s="3">
+        <v>11.732666358665455</v>
+      </c>
+      <c r="I359" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J359" s="10"/>
+    </row>
+    <row r="360" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" s="3">
+        <v>105.35266965526914</v>
+      </c>
+      <c r="C360" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D359" s="8">
-        <v>4.1029434540966081</v>
-      </c>
-      <c r="E359" s="10" t="s">
+      <c r="D360" s="3">
+        <v>5.4104062364574323</v>
+      </c>
+      <c r="E360" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F359" s="8">
-        <v>91.497635030721554</v>
-      </c>
-      <c r="G359" s="10" t="s">
+      <c r="F360" s="3">
+        <v>92.849978371549639</v>
+      </c>
+      <c r="G360" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H359" s="8">
-        <v>11.429956845514289</v>
-      </c>
-      <c r="I359" s="10" t="s">
+      <c r="H360" s="3">
+        <v>9.6180478082682939</v>
+      </c>
+      <c r="I360" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J359" s="10"/>
-    </row>
-    <row r="360" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C360" s="10"/>
-      <c r="E360" s="10"/>
-      <c r="G360" s="10"/>
-      <c r="I360" s="10"/>
       <c r="J360" s="10"/>
     </row>
-    <row r="361" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C361" s="10"/>
       <c r="E361" s="10"/>
       <c r="G361" s="10"/>
       <c r="I361" s="10"/>
       <c r="J361" s="10"/>
     </row>
-    <row r="362" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="11"/>
+    <row r="362" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="15"/>
       <c r="C362" s="10"/>
       <c r="E362" s="10"/>
       <c r="G362" s="10"/>
       <c r="I362" s="10"/>
       <c r="J362" s="10"/>
     </row>
-    <row r="363" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="11"/>
+    <row r="363" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="15"/>
       <c r="C363" s="10"/>
       <c r="E363" s="10"/>
       <c r="G363" s="10"/>
       <c r="I363" s="10"/>
       <c r="J363" s="10"/>
     </row>
-    <row r="364" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="11"/>
+    <row r="364" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="15"/>
       <c r="C364" s="10"/>
       <c r="E364" s="10"/>
       <c r="G364" s="10"/>
       <c r="I364" s="10"/>
       <c r="J364" s="10"/>
     </row>
-    <row r="365" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="11"/>
+    <row r="365" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="15"/>
       <c r="C365" s="10"/>
       <c r="E365" s="10"/>
       <c r="G365" s="10"/>
       <c r="I365" s="10"/>
       <c r="J365" s="10"/>
     </row>
-    <row r="366" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="11"/>
-      <c r="C366" s="9"/>
-      <c r="E366" s="9"/>
-      <c r="G366" s="9"/>
-      <c r="I366" s="9"/>
-      <c r="J366" s="9"/>
-    </row>
-    <row r="367" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="11"/>
-      <c r="C367" s="9"/>
-      <c r="E367" s="9"/>
-      <c r="G367" s="9"/>
-      <c r="I367" s="9"/>
-      <c r="J367" s="9"/>
-    </row>
-    <row r="368" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C368" s="9"/>
-      <c r="E368" s="9"/>
-      <c r="G368" s="9"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="9"/>
-    </row>
-    <row r="369" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C369" s="9"/>
-      <c r="E369" s="9"/>
-      <c r="G369" s="9"/>
-      <c r="I369" s="9"/>
-      <c r="J369" s="9"/>
-    </row>
-    <row r="370" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="11"/>
-      <c r="C370" s="9"/>
-      <c r="E370" s="9"/>
-      <c r="G370" s="9"/>
-      <c r="I370" s="9"/>
-      <c r="J370" s="9"/>
-    </row>
-    <row r="371" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="11"/>
-      <c r="C371" s="9"/>
-      <c r="E371" s="9"/>
-      <c r="G371" s="9"/>
-      <c r="I371" s="9"/>
-      <c r="J371" s="9"/>
-    </row>
-    <row r="372" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="11"/>
-    </row>
-    <row r="373" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="15"/>
+      <c r="C366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="G366" s="4"/>
+      <c r="I366" s="4"/>
+      <c r="J366" s="4"/>
+    </row>
+    <row r="367" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="15"/>
+      <c r="C367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="G367" s="4"/>
+      <c r="I367" s="4"/>
+      <c r="J367" s="4"/>
+    </row>
+    <row r="368" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="G368" s="4"/>
+      <c r="I368" s="4"/>
+      <c r="J368" s="4"/>
+    </row>
+    <row r="369" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="G369" s="4"/>
+      <c r="I369" s="4"/>
+      <c r="J369" s="4"/>
+    </row>
+    <row r="370" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="15"/>
+      <c r="C370" s="4"/>
+      <c r="E370" s="4"/>
+      <c r="G370" s="4"/>
+      <c r="I370" s="4"/>
+      <c r="J370" s="4"/>
+    </row>
+    <row r="371" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="15"/>
+      <c r="C371" s="4"/>
+      <c r="E371" s="4"/>
+      <c r="G371" s="4"/>
+      <c r="I371" s="4"/>
+      <c r="J371" s="4"/>
+    </row>
+    <row r="372" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="15"/>
+    </row>
+    <row r="373" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="18"/>
       <c r="C373" s="24"/>
       <c r="D373" s="18"/>
@@ -5961,7 +6036,7 @@
       <c r="I373" s="18"/>
       <c r="K373" s="18"/>
     </row>
-    <row r="374" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="18"/>
       <c r="C374" s="24"/>
       <c r="D374" s="18"/>
@@ -5972,7 +6047,7 @@
       <c r="I374" s="18"/>
       <c r="K374" s="18"/>
     </row>
-    <row r="375" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="18"/>
       <c r="C375" s="24"/>
       <c r="D375" s="18"/>
@@ -5983,36 +6058,36 @@
       <c r="I375" s="18"/>
       <c r="K375" s="18"/>
     </row>
-    <row r="376" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="11"/>
-    </row>
-    <row r="377" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="13" t="s">
+    <row r="376" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="15"/>
+    </row>
+    <row r="377" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B377" s="14"/>
+      <c r="B377" s="13"/>
       <c r="C377" s="16"/>
-      <c r="D377" s="14"/>
-      <c r="E377" s="14"/>
-    </row>
-    <row r="378" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
+    </row>
+    <row r="378" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="15" t="s">
+    <row r="382" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="27"/>
       <c r="B383" s="27"/>
       <c r="C383" s="27"/>
       <c r="D383" s="27"/>
-      <c r="E383" s="11"/>
-    </row>
-    <row r="384" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E383" s="15"/>
+    </row>
+    <row r="384" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="28" t="s">
         <v>0</v>
       </c>
@@ -6030,7 +6105,7 @@
       <c r="I384" s="30"/>
       <c r="J384" s="2"/>
     </row>
-    <row r="385" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="28"/>
       <c r="B385" s="31" t="s">
         <v>3</v>
@@ -6050,7 +6125,7 @@
       <c r="I385" s="36"/>
       <c r="J385" s="2"/>
     </row>
-    <row r="386" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="28"/>
       <c r="B386" s="33"/>
       <c r="C386" s="34"/>
@@ -6066,7 +6141,7 @@
       <c r="I386" s="38"/>
       <c r="J386" s="2"/>
     </row>
-    <row r="387" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="18"/>
       <c r="C387" s="18"/>
       <c r="D387" s="18"/>
@@ -6083,26 +6158,26 @@
       <c r="B388" s="20">
         <v>96.246549352094704</v>
       </c>
-      <c r="C388" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="C388" s="25"/>
       <c r="D388" s="20">
         <v>-0.65037306244332127</v>
       </c>
-      <c r="E388" s="25" t="s">
+      <c r="E388" s="25"/>
+      <c r="F388" s="20">
+        <v>81.196294427587105</v>
+      </c>
+      <c r="G388" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F388" s="20">
-        <v>81.197740929413399</v>
-      </c>
-      <c r="G388" s="25"/>
       <c r="H388" s="20">
-        <v>-14.32439593240138</v>
-      </c>
-      <c r="I388" s="25"/>
+        <v>-14.325922205378117</v>
+      </c>
+      <c r="I388" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="23"/>
       <c r="B389" s="18"/>
       <c r="C389" s="10"/>
@@ -6114,7 +6189,7 @@
       <c r="I389" s="10"/>
       <c r="K389" s="18"/>
     </row>
-    <row r="390" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="17" t="s">
         <v>6</v>
       </c>
@@ -6136,7 +6211,7 @@
       <c r="I390" s="10"/>
       <c r="K390" s="18"/>
     </row>
-    <row r="391" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="17" t="s">
         <v>7</v>
       </c>
@@ -6158,7 +6233,7 @@
       <c r="I391" s="10"/>
       <c r="K391" s="18"/>
     </row>
-    <row r="392" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="17" t="s">
         <v>8</v>
       </c>
@@ -6180,7 +6255,7 @@
       <c r="I392" s="10"/>
       <c r="K392" s="18"/>
     </row>
-    <row r="393" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="17" t="s">
         <v>9</v>
       </c>
@@ -6202,7 +6277,7 @@
       <c r="I393" s="10"/>
       <c r="K393" s="18"/>
     </row>
-    <row r="394" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="17" t="s">
         <v>10</v>
       </c>
@@ -6224,7 +6299,7 @@
       <c r="I394" s="10"/>
       <c r="K394" s="18"/>
     </row>
-    <row r="395" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="17" t="s">
         <v>11</v>
       </c>
@@ -6246,7 +6321,7 @@
       <c r="I395" s="10"/>
       <c r="K395" s="18"/>
     </row>
-    <row r="396" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="17" t="s">
         <v>12</v>
       </c>
@@ -6268,7 +6343,7 @@
       <c r="I396" s="10"/>
       <c r="K396" s="18"/>
     </row>
-    <row r="397" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="17" t="s">
         <v>13</v>
       </c>
@@ -6290,7 +6365,7 @@
       <c r="I397" s="10"/>
       <c r="K397" s="18"/>
     </row>
-    <row r="398" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="23" t="s">
         <v>14</v>
       </c>
@@ -6311,7 +6386,7 @@
       </c>
       <c r="I398" s="10"/>
     </row>
-    <row r="399" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="23" t="s">
         <v>15</v>
       </c>
@@ -6332,7 +6407,7 @@
       </c>
       <c r="I399" s="10"/>
     </row>
-    <row r="400" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="23" t="s">
         <v>16</v>
       </c>
@@ -6353,32 +6428,32 @@
       </c>
       <c r="I400" s="10"/>
     </row>
-    <row r="401" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B401" s="18">
         <v>95.147838797619613</v>
       </c>
-      <c r="C401" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C401" s="10"/>
       <c r="D401" s="18">
         <v>-1.1565395150532232</v>
       </c>
-      <c r="E401" s="10" t="s">
+      <c r="E401" s="10"/>
+      <c r="F401" s="18">
+        <v>81.040584736882039</v>
+      </c>
+      <c r="G401" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F401" s="18">
-        <v>81.057942758797566</v>
-      </c>
-      <c r="G401" s="10"/>
       <c r="H401" s="18">
-        <v>-14.036945668179712</v>
-      </c>
-      <c r="I401" s="10"/>
-    </row>
-    <row r="402" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-14.055354087271443</v>
+      </c>
+      <c r="I401" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="23"/>
       <c r="B402" s="18"/>
       <c r="C402" s="18"/>
@@ -6403,7 +6478,7 @@
       <c r="I403" s="20"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="23"/>
       <c r="B404" s="18"/>
       <c r="C404" s="18"/>
@@ -6415,192 +6490,207 @@
       <c r="I404" s="18"/>
       <c r="K404" s="18"/>
     </row>
-    <row r="405" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B405" s="18">
         <v>96.934063062656733</v>
       </c>
-      <c r="C405" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C405" s="10"/>
       <c r="D405" s="18">
         <v>0.54930455008066481</v>
       </c>
-      <c r="E405" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E405" s="10"/>
       <c r="F405" s="18">
-        <v>81.180998112016738</v>
+        <v>81.205392728775209</v>
       </c>
       <c r="G405" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H405" s="18">
-        <v>-2.8347219377817146</v>
+        <v>-2.8055240986853414</v>
       </c>
       <c r="I405" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K405" s="18"/>
     </row>
-    <row r="406" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B406" s="8">
+      <c r="B406" s="3">
         <v>97.472815059063649</v>
       </c>
-      <c r="C406" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D406" s="8">
+      <c r="C406" s="10"/>
+      <c r="D406" s="3">
         <v>2.9337577460476938</v>
       </c>
-      <c r="E406" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F406" s="8">
-        <v>81.567451595310587</v>
+      <c r="E406" s="10"/>
+      <c r="F406" s="3">
+        <v>81.565925038611525</v>
       </c>
       <c r="G406" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H406" s="8">
-        <v>-2.9219096881094475</v>
+      <c r="H406" s="3">
+        <v>-2.9237265305655846</v>
       </c>
       <c r="I406" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J406" s="10"/>
     </row>
-    <row r="407" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B407" s="8">
-        <v>97.685101158178057</v>
+      <c r="B407" s="3">
+        <v>97.862132633313777</v>
       </c>
       <c r="C407" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2.8133969413089321</v>
+      </c>
+      <c r="E407" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F407" s="3">
+        <v>81.725746681276789</v>
+      </c>
+      <c r="G407" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H407" s="3">
+        <v>-2.4469923250260317</v>
+      </c>
+      <c r="I407" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J407" s="10"/>
+    </row>
+    <row r="408" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B408" s="3">
+        <v>99.654337663435456</v>
+      </c>
+      <c r="C408" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D407" s="8">
-        <v>2.6274086858472101</v>
-      </c>
-      <c r="E407" s="10" t="s">
+      <c r="D408" s="3">
+        <v>7.2855807566730046</v>
+      </c>
+      <c r="E408" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F407" s="8">
-        <v>81.769762176698961</v>
-      </c>
-      <c r="G407" s="10" t="s">
+      <c r="F408" s="3">
+        <v>81.654170679172694</v>
+      </c>
+      <c r="G408" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H407" s="8">
-        <v>-2.3944526525592535</v>
-      </c>
-      <c r="I407" s="10" t="s">
+      <c r="H408" s="3">
+        <v>0.30540345066047969</v>
+      </c>
+      <c r="I408" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J407" s="10"/>
-    </row>
-    <row r="408" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C408" s="10"/>
-      <c r="E408" s="10"/>
-      <c r="G408" s="10"/>
-      <c r="I408" s="10"/>
       <c r="J408" s="10"/>
     </row>
-    <row r="409" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C409" s="10"/>
       <c r="E409" s="10"/>
       <c r="G409" s="10"/>
       <c r="I409" s="10"/>
       <c r="J409" s="10"/>
     </row>
-    <row r="410" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="11"/>
+    <row r="410" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="15"/>
       <c r="C410" s="10"/>
       <c r="E410" s="10"/>
       <c r="G410" s="10"/>
       <c r="I410" s="10"/>
       <c r="J410" s="10"/>
     </row>
-    <row r="411" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="11"/>
+    <row r="411" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="15"/>
       <c r="C411" s="10"/>
       <c r="E411" s="10"/>
       <c r="G411" s="10"/>
       <c r="I411" s="10"/>
       <c r="J411" s="10"/>
     </row>
-    <row r="412" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="11"/>
+    <row r="412" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="15"/>
       <c r="C412" s="10"/>
       <c r="E412" s="10"/>
       <c r="G412" s="10"/>
       <c r="I412" s="10"/>
       <c r="J412" s="10"/>
     </row>
-    <row r="413" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="11"/>
+    <row r="413" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="15"/>
       <c r="C413" s="10"/>
       <c r="E413" s="10"/>
       <c r="G413" s="10"/>
       <c r="I413" s="10"/>
       <c r="J413" s="10"/>
     </row>
-    <row r="414" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="11"/>
-      <c r="C414" s="9"/>
-      <c r="E414" s="9"/>
-      <c r="G414" s="9"/>
-      <c r="I414" s="9"/>
-      <c r="J414" s="9"/>
-    </row>
-    <row r="415" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="11"/>
-      <c r="C415" s="9"/>
-      <c r="E415" s="9"/>
-      <c r="G415" s="9"/>
-      <c r="I415" s="9"/>
-      <c r="J415" s="9"/>
-    </row>
-    <row r="416" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C416" s="9"/>
-      <c r="E416" s="9"/>
-      <c r="G416" s="9"/>
-      <c r="I416" s="9"/>
-      <c r="J416" s="9"/>
-    </row>
-    <row r="417" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C417" s="9"/>
-      <c r="E417" s="9"/>
-      <c r="G417" s="9"/>
-      <c r="I417" s="9"/>
-      <c r="J417" s="9"/>
-    </row>
-    <row r="418" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="11"/>
-      <c r="C418" s="9"/>
-      <c r="E418" s="9"/>
-      <c r="G418" s="9"/>
-      <c r="I418" s="9"/>
-      <c r="J418" s="9"/>
-    </row>
-    <row r="419" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="11"/>
-      <c r="C419" s="9"/>
-      <c r="E419" s="9"/>
-      <c r="G419" s="9"/>
-      <c r="I419" s="9"/>
-      <c r="J419" s="9"/>
-    </row>
-    <row r="420" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="11"/>
-    </row>
-    <row r="421" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="15"/>
+      <c r="C414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="G414" s="4"/>
+      <c r="I414" s="4"/>
+      <c r="J414" s="4"/>
+    </row>
+    <row r="415" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="15"/>
+      <c r="C415" s="4"/>
+      <c r="E415" s="4"/>
+      <c r="G415" s="4"/>
+      <c r="I415" s="4"/>
+      <c r="J415" s="4"/>
+    </row>
+    <row r="416" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="G416" s="4"/>
+      <c r="I416" s="4"/>
+      <c r="J416" s="4"/>
+    </row>
+    <row r="417" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C417" s="4"/>
+      <c r="E417" s="4"/>
+      <c r="G417" s="4"/>
+      <c r="I417" s="4"/>
+      <c r="J417" s="4"/>
+    </row>
+    <row r="418" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="15"/>
+      <c r="C418" s="4"/>
+      <c r="E418" s="4"/>
+      <c r="G418" s="4"/>
+      <c r="I418" s="4"/>
+      <c r="J418" s="4"/>
+    </row>
+    <row r="419" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="15"/>
+      <c r="C419" s="4"/>
+      <c r="E419" s="4"/>
+      <c r="G419" s="4"/>
+      <c r="I419" s="4"/>
+      <c r="J419" s="4"/>
+    </row>
+    <row r="420" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="15"/>
+    </row>
+    <row r="421" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="18"/>
       <c r="C421" s="24"/>
       <c r="D421" s="18"/>
@@ -6611,7 +6701,7 @@
       <c r="I421" s="18"/>
       <c r="K421" s="18"/>
     </row>
-    <row r="422" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="18"/>
       <c r="C422" s="24"/>
       <c r="D422" s="18"/>
@@ -6622,7 +6712,7 @@
       <c r="I422" s="18"/>
       <c r="K422" s="18"/>
     </row>
-    <row r="423" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="18"/>
       <c r="C423" s="24"/>
       <c r="D423" s="18"/>
@@ -6633,36 +6723,36 @@
       <c r="I423" s="18"/>
       <c r="K423" s="18"/>
     </row>
-    <row r="424" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="11"/>
-    </row>
-    <row r="425" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="13" t="s">
+    <row r="424" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="15"/>
+    </row>
+    <row r="425" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B425" s="14"/>
+      <c r="B425" s="13"/>
       <c r="C425" s="16"/>
-      <c r="D425" s="14"/>
-      <c r="E425" s="14"/>
-    </row>
-    <row r="426" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+    </row>
+    <row r="426" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="15" t="s">
+    <row r="430" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="27"/>
       <c r="B431" s="27"/>
       <c r="C431" s="27"/>
       <c r="D431" s="27"/>
-      <c r="E431" s="11"/>
-    </row>
-    <row r="432" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E431" s="15"/>
+    </row>
+    <row r="432" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="28" t="s">
         <v>0</v>
       </c>
@@ -6680,7 +6770,7 @@
       <c r="I432" s="30"/>
       <c r="J432" s="2"/>
     </row>
-    <row r="433" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="28"/>
       <c r="B433" s="31" t="s">
         <v>3</v>
@@ -6700,7 +6790,7 @@
       <c r="I433" s="36"/>
       <c r="J433" s="2"/>
     </row>
-    <row r="434" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="28"/>
       <c r="B434" s="33"/>
       <c r="C434" s="34"/>
@@ -6716,7 +6806,7 @@
       <c r="I434" s="38"/>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="18"/>
       <c r="C435" s="18"/>
       <c r="D435" s="18"/>
@@ -6748,7 +6838,7 @@
       <c r="I436" s="25"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="23"/>
       <c r="B437" s="18"/>
       <c r="C437" s="10"/>
@@ -6760,7 +6850,7 @@
       <c r="I437" s="10"/>
       <c r="K437" s="18"/>
     </row>
-    <row r="438" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="17" t="s">
         <v>6</v>
       </c>
@@ -6782,7 +6872,7 @@
       <c r="I438" s="10"/>
       <c r="K438" s="18"/>
     </row>
-    <row r="439" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="17" t="s">
         <v>7</v>
       </c>
@@ -6804,7 +6894,7 @@
       <c r="I439" s="10"/>
       <c r="K439" s="18"/>
     </row>
-    <row r="440" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="17" t="s">
         <v>8</v>
       </c>
@@ -6826,7 +6916,7 @@
       <c r="I440" s="10"/>
       <c r="K440" s="18"/>
     </row>
-    <row r="441" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="17" t="s">
         <v>9</v>
       </c>
@@ -6848,7 +6938,7 @@
       <c r="I441" s="10"/>
       <c r="K441" s="18"/>
     </row>
-    <row r="442" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="17" t="s">
         <v>10</v>
       </c>
@@ -6870,7 +6960,7 @@
       <c r="I442" s="10"/>
       <c r="K442" s="18"/>
     </row>
-    <row r="443" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="17" t="s">
         <v>11</v>
       </c>
@@ -6892,7 +6982,7 @@
       <c r="I443" s="10"/>
       <c r="K443" s="18"/>
     </row>
-    <row r="444" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="17" t="s">
         <v>12</v>
       </c>
@@ -6914,7 +7004,7 @@
       <c r="I444" s="10"/>
       <c r="K444" s="18"/>
     </row>
-    <row r="445" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="17" t="s">
         <v>13</v>
       </c>
@@ -6936,7 +7026,7 @@
       <c r="I445" s="10"/>
       <c r="K445" s="18"/>
     </row>
-    <row r="446" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="23" t="s">
         <v>14</v>
       </c>
@@ -6957,7 +7047,7 @@
       </c>
       <c r="I446" s="10"/>
     </row>
-    <row r="447" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="23" t="s">
         <v>15</v>
       </c>
@@ -6978,7 +7068,7 @@
       </c>
       <c r="I447" s="10"/>
     </row>
-    <row r="448" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="23" t="s">
         <v>16</v>
       </c>
@@ -6999,7 +7089,7 @@
       </c>
       <c r="I448" s="10"/>
     </row>
-    <row r="449" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="23" t="s">
         <v>17</v>
       </c>
@@ -7020,7 +7110,7 @@
       </c>
       <c r="I449" s="10"/>
     </row>
-    <row r="450" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="23"/>
       <c r="B450" s="18"/>
       <c r="C450" s="18"/>
@@ -7045,7 +7135,7 @@
       <c r="I451" s="20"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="23"/>
       <c r="B452" s="18"/>
       <c r="C452" s="18"/>
@@ -7057,192 +7147,207 @@
       <c r="I452" s="18"/>
       <c r="K452" s="18"/>
     </row>
-    <row r="453" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B453" s="18">
         <v>104.85585282165272</v>
       </c>
-      <c r="C453" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C453" s="10"/>
       <c r="D453" s="18">
         <v>4.0881434854103116</v>
       </c>
-      <c r="E453" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E453" s="10"/>
       <c r="F453" s="18">
-        <v>89.455316105964172</v>
+        <v>89.199427387967631</v>
       </c>
       <c r="G453" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H453" s="18">
-        <v>-3.2279177818784532</v>
+        <v>-3.5047362554425976</v>
       </c>
       <c r="I453" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K453" s="18"/>
     </row>
-    <row r="454" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B454" s="8">
+      <c r="B454" s="3">
         <v>104.98211343198417</v>
       </c>
-      <c r="C454" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D454" s="8">
+      <c r="C454" s="10"/>
+      <c r="D454" s="3">
         <v>3.7247854682052717</v>
       </c>
-      <c r="E454" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F454" s="8">
-        <v>90.780934610516852</v>
+      <c r="E454" s="10"/>
+      <c r="F454" s="3">
+        <v>90.518671186979731</v>
       </c>
       <c r="G454" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H454" s="8">
-        <v>-0.58186846811992821</v>
+      <c r="H454" s="3">
+        <v>-0.86908449700396906</v>
       </c>
       <c r="I454" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J454" s="10"/>
     </row>
-    <row r="455" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B455" s="8">
-        <v>105.10832473435237</v>
+      <c r="B455" s="3">
+        <v>105.14862604531734</v>
       </c>
       <c r="C455" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D455" s="3">
+        <v>3.2853810185290211</v>
+      </c>
+      <c r="E455" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F455" s="3">
+        <v>90.396462137232319</v>
+      </c>
+      <c r="G455" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H455" s="3">
+        <v>-0.96937138545492019</v>
+      </c>
+      <c r="I455" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J455" s="10"/>
+    </row>
+    <row r="456" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B456" s="3">
+        <v>105.36807724595576</v>
+      </c>
+      <c r="C456" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D455" s="8">
-        <v>3.2457938511534667</v>
-      </c>
-      <c r="E455" s="10" t="s">
+      <c r="D456" s="3">
+        <v>3.6556663565841196</v>
+      </c>
+      <c r="E456" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F455" s="8">
-        <v>90.826470024508282</v>
-      </c>
-      <c r="G455" s="10" t="s">
+      <c r="F456" s="3">
+        <v>90.37262807423258</v>
+      </c>
+      <c r="G456" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H455" s="8">
-        <v>-0.49829154030009981</v>
-      </c>
-      <c r="I455" s="10" t="s">
+      <c r="H456" s="3">
+        <v>3.0190163164230288</v>
+      </c>
+      <c r="I456" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J455" s="10"/>
-    </row>
-    <row r="456" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C456" s="10"/>
-      <c r="E456" s="10"/>
-      <c r="G456" s="10"/>
-      <c r="I456" s="10"/>
       <c r="J456" s="10"/>
     </row>
-    <row r="457" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C457" s="10"/>
       <c r="E457" s="10"/>
       <c r="G457" s="10"/>
       <c r="I457" s="10"/>
       <c r="J457" s="10"/>
     </row>
-    <row r="458" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="11"/>
+    <row r="458" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="15"/>
       <c r="C458" s="10"/>
       <c r="E458" s="10"/>
       <c r="G458" s="10"/>
       <c r="I458" s="10"/>
       <c r="J458" s="10"/>
     </row>
-    <row r="459" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="11"/>
+    <row r="459" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="15"/>
       <c r="C459" s="10"/>
       <c r="E459" s="10"/>
       <c r="G459" s="10"/>
       <c r="I459" s="10"/>
       <c r="J459" s="10"/>
     </row>
-    <row r="460" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="11"/>
+    <row r="460" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="15"/>
       <c r="C460" s="10"/>
       <c r="E460" s="10"/>
       <c r="G460" s="10"/>
       <c r="I460" s="10"/>
       <c r="J460" s="10"/>
     </row>
-    <row r="461" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="11"/>
+    <row r="461" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="15"/>
       <c r="C461" s="10"/>
       <c r="E461" s="10"/>
       <c r="G461" s="10"/>
       <c r="I461" s="10"/>
       <c r="J461" s="10"/>
     </row>
-    <row r="462" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="11"/>
-      <c r="C462" s="9"/>
-      <c r="E462" s="9"/>
-      <c r="G462" s="9"/>
-      <c r="I462" s="9"/>
-      <c r="J462" s="9"/>
-    </row>
-    <row r="463" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="11"/>
-      <c r="C463" s="9"/>
-      <c r="E463" s="9"/>
-      <c r="G463" s="9"/>
-      <c r="I463" s="9"/>
-      <c r="J463" s="9"/>
-    </row>
-    <row r="464" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C464" s="9"/>
-      <c r="E464" s="9"/>
-      <c r="G464" s="9"/>
-      <c r="I464" s="9"/>
-      <c r="J464" s="9"/>
-    </row>
-    <row r="465" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C465" s="9"/>
-      <c r="E465" s="9"/>
-      <c r="G465" s="9"/>
-      <c r="I465" s="9"/>
-      <c r="J465" s="9"/>
-    </row>
-    <row r="466" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="11"/>
-      <c r="C466" s="9"/>
-      <c r="E466" s="9"/>
-      <c r="G466" s="9"/>
-      <c r="I466" s="9"/>
-      <c r="J466" s="9"/>
-    </row>
-    <row r="467" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="11"/>
-      <c r="C467" s="9"/>
-      <c r="E467" s="9"/>
-      <c r="G467" s="9"/>
-      <c r="I467" s="9"/>
-      <c r="J467" s="9"/>
-    </row>
-    <row r="468" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="11"/>
-    </row>
-    <row r="469" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="15"/>
+      <c r="C462" s="4"/>
+      <c r="E462" s="4"/>
+      <c r="G462" s="4"/>
+      <c r="I462" s="4"/>
+      <c r="J462" s="4"/>
+    </row>
+    <row r="463" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="15"/>
+      <c r="C463" s="4"/>
+      <c r="E463" s="4"/>
+      <c r="G463" s="4"/>
+      <c r="I463" s="4"/>
+      <c r="J463" s="4"/>
+    </row>
+    <row r="464" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C464" s="4"/>
+      <c r="E464" s="4"/>
+      <c r="G464" s="4"/>
+      <c r="I464" s="4"/>
+      <c r="J464" s="4"/>
+    </row>
+    <row r="465" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C465" s="4"/>
+      <c r="E465" s="4"/>
+      <c r="G465" s="4"/>
+      <c r="I465" s="4"/>
+      <c r="J465" s="4"/>
+    </row>
+    <row r="466" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="15"/>
+      <c r="C466" s="4"/>
+      <c r="E466" s="4"/>
+      <c r="G466" s="4"/>
+      <c r="I466" s="4"/>
+      <c r="J466" s="4"/>
+    </row>
+    <row r="467" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="15"/>
+      <c r="C467" s="4"/>
+      <c r="E467" s="4"/>
+      <c r="G467" s="4"/>
+      <c r="I467" s="4"/>
+      <c r="J467" s="4"/>
+    </row>
+    <row r="468" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="15"/>
+    </row>
+    <row r="469" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="18"/>
       <c r="C469" s="24"/>
       <c r="D469" s="18"/>
@@ -7253,7 +7358,7 @@
       <c r="I469" s="18"/>
       <c r="K469" s="18"/>
     </row>
-    <row r="470" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="18"/>
       <c r="C470" s="24"/>
       <c r="D470" s="18"/>
@@ -7264,7 +7369,7 @@
       <c r="I470" s="18"/>
       <c r="K470" s="18"/>
     </row>
-    <row r="471" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="18"/>
       <c r="C471" s="24"/>
       <c r="D471" s="18"/>
@@ -7275,31 +7380,31 @@
       <c r="I471" s="18"/>
       <c r="K471" s="18"/>
     </row>
-    <row r="472" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="11"/>
-    </row>
-    <row r="473" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="13" t="s">
+    <row r="472" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="15"/>
+    </row>
+    <row r="473" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B473" s="14"/>
+      <c r="B473" s="13"/>
       <c r="C473" s="16"/>
-      <c r="D473" s="14"/>
-      <c r="E473" s="14"/>
-    </row>
-    <row r="478" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="15" t="s">
+      <c r="D473" s="13"/>
+      <c r="E473" s="13"/>
+    </row>
+    <row r="478" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="27"/>
       <c r="B479" s="27"/>
       <c r="C479" s="27"/>
       <c r="D479" s="27"/>
-      <c r="E479" s="11"/>
-    </row>
-    <row r="480" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E479" s="15"/>
+    </row>
+    <row r="480" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="28" t="s">
         <v>0</v>
       </c>
@@ -7317,7 +7422,7 @@
       <c r="I480" s="30"/>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="28"/>
       <c r="B481" s="31" t="s">
         <v>3</v>
@@ -7337,7 +7442,7 @@
       <c r="I481" s="36"/>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="28"/>
       <c r="B482" s="33"/>
       <c r="C482" s="34"/>
@@ -7353,7 +7458,7 @@
       <c r="I482" s="38"/>
       <c r="J482" s="2"/>
     </row>
-    <row r="483" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="18"/>
       <c r="C483" s="18"/>
       <c r="D483" s="18"/>
@@ -7378,14 +7483,14 @@
       <c r="F484" s="20">
         <v>87.986254311765364</v>
       </c>
-      <c r="G484" s="7"/>
+      <c r="G484" s="9"/>
       <c r="H484" s="20">
         <v>-3.5896686489503282</v>
       </c>
-      <c r="I484" s="7"/>
+      <c r="I484" s="9"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="23"/>
       <c r="B485" s="18"/>
       <c r="C485" s="10"/>
@@ -7397,7 +7502,7 @@
       <c r="I485" s="10"/>
       <c r="K485" s="18"/>
     </row>
-    <row r="486" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="17" t="s">
         <v>6</v>
       </c>
@@ -7419,7 +7524,7 @@
       <c r="I486" s="10"/>
       <c r="K486" s="18"/>
     </row>
-    <row r="487" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="17" t="s">
         <v>7</v>
       </c>
@@ -7441,7 +7546,7 @@
       <c r="I487" s="10"/>
       <c r="K487" s="18"/>
     </row>
-    <row r="488" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="17" t="s">
         <v>8</v>
       </c>
@@ -7463,7 +7568,7 @@
       <c r="I488" s="10"/>
       <c r="K488" s="18"/>
     </row>
-    <row r="489" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="17" t="s">
         <v>9</v>
       </c>
@@ -7485,7 +7590,7 @@
       <c r="I489" s="10"/>
       <c r="K489" s="18"/>
     </row>
-    <row r="490" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="17" t="s">
         <v>10</v>
       </c>
@@ -7507,7 +7612,7 @@
       <c r="I490" s="10"/>
       <c r="K490" s="18"/>
     </row>
-    <row r="491" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="17" t="s">
         <v>11</v>
       </c>
@@ -7529,7 +7634,7 @@
       <c r="I491" s="10"/>
       <c r="K491" s="18"/>
     </row>
-    <row r="492" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="17" t="s">
         <v>12</v>
       </c>
@@ -7551,7 +7656,7 @@
       <c r="I492" s="10"/>
       <c r="K492" s="18"/>
     </row>
-    <row r="493" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="17" t="s">
         <v>13</v>
       </c>
@@ -7573,7 +7678,7 @@
       <c r="I493" s="10"/>
       <c r="K493" s="18"/>
     </row>
-    <row r="494" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="23" t="s">
         <v>14</v>
       </c>
@@ -7594,7 +7699,7 @@
       </c>
       <c r="I494" s="10"/>
     </row>
-    <row r="495" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="23" t="s">
         <v>15</v>
       </c>
@@ -7615,7 +7720,7 @@
       </c>
       <c r="I495" s="10"/>
     </row>
-    <row r="496" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="23" t="s">
         <v>16</v>
       </c>
@@ -7636,7 +7741,7 @@
       </c>
       <c r="I496" s="10"/>
     </row>
-    <row r="497" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="23" t="s">
         <v>17</v>
       </c>
@@ -7657,7 +7762,7 @@
       </c>
       <c r="I497" s="10"/>
     </row>
-    <row r="498" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="23"/>
       <c r="B498" s="18"/>
       <c r="C498" s="18"/>
@@ -7682,7 +7787,7 @@
       <c r="I499" s="20"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="23"/>
       <c r="B500" s="18"/>
       <c r="C500" s="18"/>
@@ -7694,96 +7799,119 @@
       <c r="I500" s="18"/>
       <c r="K500" s="18"/>
     </row>
-    <row r="501" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B501" s="18">
         <v>89.083803576215303</v>
       </c>
-      <c r="C501" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C501" s="10"/>
       <c r="D501" s="18">
         <v>-6.568001501013887E-2</v>
       </c>
-      <c r="E501" s="10" t="s">
+      <c r="E501" s="10"/>
+      <c r="F501" s="18">
+        <v>88.720773552106351</v>
+      </c>
+      <c r="G501" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F501" s="18">
-        <v>88.992733044019488</v>
-      </c>
-      <c r="G501" s="10"/>
       <c r="H501" s="18">
-        <v>3.232928734013063</v>
-      </c>
-      <c r="I501" s="10"/>
+        <v>2.917451572149532</v>
+      </c>
+      <c r="I501" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="K501" s="18"/>
     </row>
-    <row r="502" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B502" s="8">
+      <c r="B502" s="3">
         <v>89.820800594999199</v>
       </c>
-      <c r="C502" s="10" t="s">
+      <c r="C502" s="10"/>
+      <c r="D502" s="3">
+        <v>1.5260739968398607</v>
+      </c>
+      <c r="E502" s="10"/>
+      <c r="F502" s="3">
+        <v>88.77319504222308</v>
+      </c>
+      <c r="G502" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D502" s="8">
-        <v>1.5260739968398607</v>
-      </c>
-      <c r="E502" s="10" t="s">
+      <c r="H502" s="3">
+        <v>1.5367154681126483</v>
+      </c>
+      <c r="I502" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F502" s="8">
-        <v>88.989375296378654</v>
-      </c>
-      <c r="G502" s="10"/>
-      <c r="H502" s="8">
-        <v>1.7839774140815834</v>
-      </c>
-      <c r="I502" s="10"/>
       <c r="J502" s="10"/>
     </row>
-    <row r="503" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B503" s="8">
-        <v>90.579682578415117</v>
+      <c r="B503" s="3">
+        <v>90.522722856136767</v>
       </c>
       <c r="C503" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2.4697522297533858</v>
+      </c>
+      <c r="E503" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F503" s="3">
+        <v>88.317305979706219</v>
+      </c>
+      <c r="G503" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H503" s="3">
+        <v>1.4755756361621186</v>
+      </c>
+      <c r="I503" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J503" s="10"/>
+    </row>
+    <row r="504" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B504" s="3">
+        <v>89.990536237190526</v>
+      </c>
+      <c r="C504" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D503" s="8">
-        <v>2.5342293957596906</v>
-      </c>
-      <c r="E503" s="10" t="s">
+      <c r="D504" s="3">
+        <v>2.0984199324014519</v>
+      </c>
+      <c r="E504" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F503" s="8">
-        <v>89.351399888417831</v>
-      </c>
-      <c r="G503" s="10" t="s">
+      <c r="F504" s="3">
+        <v>87.927470691672283</v>
+      </c>
+      <c r="G504" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H503" s="8">
-        <v>2.6637377238108328</v>
-      </c>
-      <c r="I503" s="10" t="s">
+      <c r="H504" s="3">
+        <v>0.80947575114616033</v>
+      </c>
+      <c r="I504" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J503" s="10"/>
-    </row>
-    <row r="504" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C504" s="10"/>
-      <c r="E504" s="10"/>
-      <c r="G504" s="10"/>
-      <c r="I504" s="10"/>
       <c r="J504" s="10"/>
     </row>
-    <row r="505" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="17"/>
       <c r="C505" s="10"/>
       <c r="E505" s="10"/>
@@ -7791,88 +7919,88 @@
       <c r="I505" s="10"/>
       <c r="J505" s="10"/>
     </row>
-    <row r="506" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="11"/>
+    <row r="506" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="15"/>
       <c r="C506" s="10"/>
       <c r="E506" s="10"/>
       <c r="G506" s="10"/>
       <c r="I506" s="10"/>
       <c r="J506" s="10"/>
     </row>
-    <row r="507" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="11"/>
+    <row r="507" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="15"/>
       <c r="C507" s="10"/>
       <c r="E507" s="10"/>
       <c r="G507" s="10"/>
       <c r="I507" s="10"/>
       <c r="J507" s="10"/>
     </row>
-    <row r="508" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="11"/>
+    <row r="508" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="15"/>
       <c r="C508" s="10"/>
       <c r="E508" s="10"/>
       <c r="G508" s="10"/>
       <c r="I508" s="10"/>
       <c r="J508" s="10"/>
     </row>
-    <row r="509" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="11"/>
+    <row r="509" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="15"/>
       <c r="C509" s="10"/>
       <c r="E509" s="10"/>
       <c r="G509" s="10"/>
       <c r="I509" s="10"/>
       <c r="J509" s="10"/>
     </row>
-    <row r="510" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="11"/>
-      <c r="C510" s="9"/>
-      <c r="E510" s="9"/>
-      <c r="G510" s="9"/>
-      <c r="I510" s="9"/>
-      <c r="J510" s="9"/>
-    </row>
-    <row r="511" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="11"/>
-      <c r="C511" s="9"/>
-      <c r="E511" s="9"/>
-      <c r="G511" s="9"/>
-      <c r="I511" s="9"/>
-      <c r="J511" s="9"/>
-    </row>
-    <row r="512" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C512" s="9"/>
-      <c r="E512" s="9"/>
-      <c r="G512" s="9"/>
-      <c r="I512" s="9"/>
-      <c r="J512" s="9"/>
-    </row>
-    <row r="513" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C513" s="9"/>
-      <c r="E513" s="9"/>
-      <c r="G513" s="9"/>
-      <c r="I513" s="9"/>
-      <c r="J513" s="9"/>
-    </row>
-    <row r="514" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="11"/>
-      <c r="C514" s="9"/>
-      <c r="E514" s="9"/>
-      <c r="G514" s="9"/>
-      <c r="I514" s="9"/>
-      <c r="J514" s="9"/>
-    </row>
-    <row r="515" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="11"/>
-      <c r="C515" s="9"/>
-      <c r="E515" s="9"/>
-      <c r="G515" s="9"/>
-      <c r="I515" s="9"/>
-      <c r="J515" s="9"/>
-    </row>
-    <row r="516" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="11"/>
-    </row>
-    <row r="517" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="15"/>
+      <c r="C510" s="4"/>
+      <c r="E510" s="4"/>
+      <c r="G510" s="4"/>
+      <c r="I510" s="4"/>
+      <c r="J510" s="4"/>
+    </row>
+    <row r="511" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="15"/>
+      <c r="C511" s="4"/>
+      <c r="E511" s="4"/>
+      <c r="G511" s="4"/>
+      <c r="I511" s="4"/>
+      <c r="J511" s="4"/>
+    </row>
+    <row r="512" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C512" s="4"/>
+      <c r="E512" s="4"/>
+      <c r="G512" s="4"/>
+      <c r="I512" s="4"/>
+      <c r="J512" s="4"/>
+    </row>
+    <row r="513" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C513" s="4"/>
+      <c r="E513" s="4"/>
+      <c r="G513" s="4"/>
+      <c r="I513" s="4"/>
+      <c r="J513" s="4"/>
+    </row>
+    <row r="514" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="15"/>
+      <c r="C514" s="4"/>
+      <c r="E514" s="4"/>
+      <c r="G514" s="4"/>
+      <c r="I514" s="4"/>
+      <c r="J514" s="4"/>
+    </row>
+    <row r="515" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="15"/>
+      <c r="C515" s="4"/>
+      <c r="E515" s="4"/>
+      <c r="G515" s="4"/>
+      <c r="I515" s="4"/>
+      <c r="J515" s="4"/>
+    </row>
+    <row r="516" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="15"/>
+    </row>
+    <row r="517" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="18"/>
       <c r="C517" s="24"/>
       <c r="D517" s="18"/>
@@ -7883,7 +8011,7 @@
       <c r="I517" s="18"/>
       <c r="K517" s="18"/>
     </row>
-    <row r="518" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="18"/>
       <c r="C518" s="24"/>
       <c r="D518" s="18"/>
@@ -7894,7 +8022,7 @@
       <c r="I518" s="18"/>
       <c r="K518" s="18"/>
     </row>
-    <row r="519" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="18"/>
       <c r="C519" s="24"/>
       <c r="D519" s="18"/>
@@ -7905,31 +8033,31 @@
       <c r="I519" s="18"/>
       <c r="K519" s="18"/>
     </row>
-    <row r="520" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="11"/>
-    </row>
-    <row r="521" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="13" t="s">
+    <row r="520" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="15"/>
+    </row>
+    <row r="521" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B521" s="14"/>
+      <c r="B521" s="13"/>
       <c r="C521" s="16"/>
-      <c r="D521" s="14"/>
-      <c r="E521" s="14"/>
-    </row>
-    <row r="526" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="15" t="s">
+      <c r="D521" s="13"/>
+      <c r="E521" s="13"/>
+    </row>
+    <row r="526" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="27"/>
       <c r="B527" s="27"/>
       <c r="C527" s="27"/>
       <c r="D527" s="27"/>
-      <c r="E527" s="11"/>
-    </row>
-    <row r="528" spans="1:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E527" s="15"/>
+    </row>
+    <row r="528" spans="1:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="28" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +8072,7 @@
       <c r="H528" s="18"/>
       <c r="I528" s="18"/>
     </row>
-    <row r="529" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="28"/>
       <c r="B529" s="31" t="s">
         <v>3</v>
@@ -7959,7 +8087,7 @@
       <c r="H529" s="18"/>
       <c r="I529" s="18"/>
     </row>
-    <row r="530" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="28"/>
       <c r="B530" s="33"/>
       <c r="C530" s="34"/>
@@ -7972,7 +8100,7 @@
       <c r="H530" s="18"/>
       <c r="I530" s="18"/>
     </row>
-    <row r="531" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="18"/>
       <c r="C531" s="18"/>
       <c r="D531" s="18"/>
@@ -8000,7 +8128,7 @@
       <c r="I532" s="20"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="23"/>
       <c r="B533" s="18"/>
       <c r="C533" s="10"/>
@@ -8012,7 +8140,7 @@
       <c r="I533" s="18"/>
       <c r="K533" s="18"/>
     </row>
-    <row r="534" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="17" t="s">
         <v>6</v>
       </c>
@@ -8030,7 +8158,7 @@
       <c r="I534" s="18"/>
       <c r="K534" s="18"/>
     </row>
-    <row r="535" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="17" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8176,7 @@
       <c r="I535" s="18"/>
       <c r="K535" s="18"/>
     </row>
-    <row r="536" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="17" t="s">
         <v>8</v>
       </c>
@@ -8066,7 +8194,7 @@
       <c r="I536" s="18"/>
       <c r="K536" s="18"/>
     </row>
-    <row r="537" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="17" t="s">
         <v>9</v>
       </c>
@@ -8084,7 +8212,7 @@
       <c r="I537" s="18"/>
       <c r="K537" s="18"/>
     </row>
-    <row r="538" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="17" t="s">
         <v>10</v>
       </c>
@@ -8102,7 +8230,7 @@
       <c r="I538" s="18"/>
       <c r="K538" s="18"/>
     </row>
-    <row r="539" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="17" t="s">
         <v>11</v>
       </c>
@@ -8120,7 +8248,7 @@
       <c r="I539" s="18"/>
       <c r="K539" s="18"/>
     </row>
-    <row r="540" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="17" t="s">
         <v>12</v>
       </c>
@@ -8138,7 +8266,7 @@
       <c r="I540" s="18"/>
       <c r="K540" s="18"/>
     </row>
-    <row r="541" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="17" t="s">
         <v>13</v>
       </c>
@@ -8156,7 +8284,7 @@
       <c r="I541" s="18"/>
       <c r="K541" s="18"/>
     </row>
-    <row r="542" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="23" t="s">
         <v>14</v>
       </c>
@@ -8173,7 +8301,7 @@
       <c r="H542" s="18"/>
       <c r="I542" s="18"/>
     </row>
-    <row r="543" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="23" t="s">
         <v>15</v>
       </c>
@@ -8190,7 +8318,7 @@
       <c r="H543" s="18"/>
       <c r="I543" s="18"/>
     </row>
-    <row r="544" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="23" t="s">
         <v>16</v>
       </c>
@@ -8207,7 +8335,7 @@
       <c r="H544" s="18"/>
       <c r="I544" s="18"/>
     </row>
-    <row r="545" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="23" t="s">
         <v>17</v>
       </c>
@@ -8224,7 +8352,7 @@
       <c r="H545" s="18"/>
       <c r="I545" s="18"/>
     </row>
-    <row r="546" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="23"/>
       <c r="B546" s="18"/>
       <c r="C546" s="18"/>
@@ -8250,7 +8378,7 @@
       <c r="K547" s="20"/>
       <c r="L547" s="17"/>
     </row>
-    <row r="548" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="23"/>
       <c r="B548" s="18"/>
       <c r="C548" s="18"/>
@@ -8262,40 +8390,36 @@
       <c r="I548" s="18"/>
       <c r="K548" s="18"/>
     </row>
-    <row r="549" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B549" s="18">
         <v>99.136847744443727</v>
       </c>
-      <c r="C549" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C549" s="10"/>
       <c r="D549" s="18">
         <v>-0.2510636021487711</v>
       </c>
-      <c r="E549" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E549" s="10"/>
       <c r="F549" s="18"/>
       <c r="G549" s="24"/>
       <c r="H549" s="18"/>
       <c r="I549" s="18"/>
       <c r="K549" s="18"/>
     </row>
-    <row r="550" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B550" s="8">
-        <v>99.546282507633961</v>
+      <c r="B550" s="3">
+        <v>99.515392216979677</v>
       </c>
       <c r="C550" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D550" s="8">
-        <v>-2.2223130140460179</v>
+      <c r="D550" s="3">
+        <v>-2.2526544903363921</v>
       </c>
       <c r="E550" s="10" t="s">
         <v>41</v>
@@ -8305,36 +8429,49 @@
       <c r="J550" s="10"/>
       <c r="L550" s="17"/>
     </row>
-    <row r="551" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B551" s="8">
-        <v>99.021909168910042</v>
+      <c r="B551" s="3">
+        <v>99.149419135467781</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D551" s="8">
-        <v>0.21835811535471095</v>
+        <v>41</v>
+      </c>
+      <c r="D551" s="3">
+        <v>0.34740874262511046</v>
       </c>
       <c r="E551" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G551" s="10"/>
       <c r="I551" s="10"/>
       <c r="J551" s="10"/>
       <c r="L551" s="17"/>
     </row>
-    <row r="552" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C552" s="10"/>
-      <c r="E552" s="10"/>
+    <row r="552" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B552" s="3">
+        <v>98.863463989925577</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D552" s="3">
+        <v>-0.36395598095378956</v>
+      </c>
+      <c r="E552" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="G552" s="10"/>
       <c r="I552" s="10"/>
       <c r="J552" s="10"/>
       <c r="L552" s="17"/>
     </row>
-    <row r="553" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="17"/>
       <c r="C553" s="10"/>
       <c r="E553" s="10"/>
@@ -8343,8 +8480,8 @@
       <c r="J553" s="10"/>
       <c r="L553" s="17"/>
     </row>
-    <row r="554" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="11"/>
+    <row r="554" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="15"/>
       <c r="C554" s="10"/>
       <c r="E554" s="10"/>
       <c r="G554" s="10"/>
@@ -8352,8 +8489,8 @@
       <c r="J554" s="10"/>
       <c r="L554" s="17"/>
     </row>
-    <row r="555" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="11"/>
+    <row r="555" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="15"/>
       <c r="C555" s="10"/>
       <c r="E555" s="10"/>
       <c r="G555" s="10"/>
@@ -8361,72 +8498,72 @@
       <c r="J555" s="10"/>
       <c r="L555" s="17"/>
     </row>
-    <row r="556" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="11"/>
+    <row r="556" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="15"/>
       <c r="C556" s="10"/>
       <c r="E556" s="10"/>
       <c r="G556" s="10"/>
       <c r="I556" s="10"/>
       <c r="J556" s="10"/>
     </row>
-    <row r="557" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="11"/>
+    <row r="557" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="15"/>
       <c r="C557" s="10"/>
       <c r="E557" s="10"/>
       <c r="G557" s="10"/>
       <c r="I557" s="10"/>
       <c r="J557" s="10"/>
     </row>
-    <row r="558" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="11"/>
-      <c r="C558" s="9"/>
-      <c r="E558" s="9"/>
-      <c r="G558" s="9"/>
-      <c r="I558" s="9"/>
-      <c r="J558" s="9"/>
-    </row>
-    <row r="559" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="11"/>
-      <c r="C559" s="9"/>
-      <c r="E559" s="9"/>
-      <c r="G559" s="9"/>
-      <c r="I559" s="9"/>
-      <c r="J559" s="9"/>
-    </row>
-    <row r="560" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C560" s="9"/>
-      <c r="E560" s="9"/>
-      <c r="G560" s="9"/>
-      <c r="I560" s="9"/>
-      <c r="J560" s="9"/>
-    </row>
-    <row r="561" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C561" s="9"/>
-      <c r="E561" s="9"/>
-      <c r="G561" s="9"/>
-      <c r="I561" s="9"/>
-      <c r="J561" s="9"/>
-    </row>
-    <row r="562" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="11"/>
-      <c r="C562" s="9"/>
-      <c r="E562" s="9"/>
-      <c r="G562" s="9"/>
-      <c r="I562" s="9"/>
-      <c r="J562" s="9"/>
-    </row>
-    <row r="563" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="11"/>
-      <c r="C563" s="9"/>
-      <c r="E563" s="9"/>
-      <c r="G563" s="9"/>
-      <c r="I563" s="9"/>
-      <c r="J563" s="9"/>
-    </row>
-    <row r="564" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="11"/>
-    </row>
-    <row r="565" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="15"/>
+      <c r="C558" s="4"/>
+      <c r="E558" s="4"/>
+      <c r="G558" s="4"/>
+      <c r="I558" s="4"/>
+      <c r="J558" s="4"/>
+    </row>
+    <row r="559" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="15"/>
+      <c r="C559" s="4"/>
+      <c r="E559" s="4"/>
+      <c r="G559" s="4"/>
+      <c r="I559" s="4"/>
+      <c r="J559" s="4"/>
+    </row>
+    <row r="560" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C560" s="4"/>
+      <c r="E560" s="4"/>
+      <c r="G560" s="4"/>
+      <c r="I560" s="4"/>
+      <c r="J560" s="4"/>
+    </row>
+    <row r="561" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C561" s="4"/>
+      <c r="E561" s="4"/>
+      <c r="G561" s="4"/>
+      <c r="I561" s="4"/>
+      <c r="J561" s="4"/>
+    </row>
+    <row r="562" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="15"/>
+      <c r="C562" s="4"/>
+      <c r="E562" s="4"/>
+      <c r="G562" s="4"/>
+      <c r="I562" s="4"/>
+      <c r="J562" s="4"/>
+    </row>
+    <row r="563" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="15"/>
+      <c r="C563" s="4"/>
+      <c r="E563" s="4"/>
+      <c r="G563" s="4"/>
+      <c r="I563" s="4"/>
+      <c r="J563" s="4"/>
+    </row>
+    <row r="564" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="15"/>
+    </row>
+    <row r="565" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="18"/>
       <c r="C565" s="24"/>
       <c r="D565" s="18"/>
@@ -8437,7 +8574,7 @@
       <c r="I565" s="18"/>
       <c r="K565" s="18"/>
     </row>
-    <row r="566" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="18"/>
       <c r="C566" s="24"/>
       <c r="D566" s="18"/>
@@ -8448,7 +8585,7 @@
       <c r="I566" s="18"/>
       <c r="K566" s="18"/>
     </row>
-    <row r="567" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="18"/>
       <c r="C567" s="24"/>
       <c r="D567" s="18"/>
@@ -8459,26 +8596,26 @@
       <c r="I567" s="18"/>
       <c r="K567" s="18"/>
     </row>
-    <row r="568" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="11"/>
-    </row>
-    <row r="569" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A569" s="13" t="s">
+    <row r="568" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="15"/>
+    </row>
+    <row r="569" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B569" s="14"/>
+      <c r="B569" s="13"/>
       <c r="C569" s="16"/>
-      <c r="D569" s="14"/>
-      <c r="E569" s="14"/>
-    </row>
-    <row r="572" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D569" s="13"/>
+      <c r="E569" s="13"/>
+    </row>
+    <row r="572" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="27"/>
       <c r="B572" s="27"/>
       <c r="C572" s="27"/>
       <c r="D572" s="27"/>
-      <c r="E572" s="11"/>
-    </row>
-    <row r="573" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E572" s="15"/>
+    </row>
+    <row r="573" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>40</v>
       </c>
@@ -8608,7 +8745,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
